--- a/06_gene_set_expression/funciones_72_48_cc_gsea.xlsx
+++ b/06_gene_set_expression/funciones_72_48_cc_gsea.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -47,24 +47,36 @@
     <t>core_enrichment</t>
   </si>
   <si>
+    <t>GO:0000786</t>
+  </si>
+  <si>
+    <t>GO:0044815</t>
+  </si>
+  <si>
     <t>GO:0000313</t>
   </si>
   <si>
     <t>GO:0005761</t>
   </si>
   <si>
-    <t>GO:0000786</t>
-  </si>
-  <si>
-    <t>GO:0044815</t>
-  </si>
-  <si>
     <t>GO:0005657</t>
   </si>
   <si>
     <t>GO:0000228</t>
   </si>
   <si>
+    <t>GO:0000428</t>
+  </si>
+  <si>
+    <t>GO:0030880</t>
+  </si>
+  <si>
+    <t>GO:0055029</t>
+  </si>
+  <si>
+    <t>GO:0032993</t>
+  </si>
+  <si>
     <t>GO:0005747</t>
   </si>
   <si>
@@ -74,27 +86,15 @@
     <t>GO:0045271</t>
   </si>
   <si>
+    <t>GO:0005732</t>
+  </si>
+  <si>
+    <t>GO:0120114</t>
+  </si>
+  <si>
     <t>GO:0030684</t>
   </si>
   <si>
-    <t>GO:0000428</t>
-  </si>
-  <si>
-    <t>GO:0030880</t>
-  </si>
-  <si>
-    <t>GO:0055029</t>
-  </si>
-  <si>
-    <t>GO:0120114</t>
-  </si>
-  <si>
-    <t>GO:0032993</t>
-  </si>
-  <si>
-    <t>GO:0005732</t>
-  </si>
-  <si>
     <t>GO:0005838</t>
   </si>
   <si>
@@ -107,15 +107,18 @@
     <t>GO:0005833</t>
   </si>
   <si>
+    <t>GO:0071011</t>
+  </si>
+  <si>
     <t>GO:0097526</t>
   </si>
   <si>
-    <t>GO:0071011</t>
-  </si>
-  <si>
     <t>GO:0062023</t>
   </si>
   <si>
+    <t>GO:0043596</t>
+  </si>
+  <si>
     <t>GO:0000315</t>
   </si>
   <si>
@@ -125,55 +128,67 @@
     <t>GO:1990204</t>
   </si>
   <si>
+    <t>GO:0000775</t>
+  </si>
+  <si>
+    <t>GO:0071013</t>
+  </si>
+  <si>
+    <t>GO:0005684</t>
+  </si>
+  <si>
+    <t>GO:0030134</t>
+  </si>
+  <si>
+    <t>GO:0030312</t>
+  </si>
+  <si>
+    <t>GO:0031012</t>
+  </si>
+  <si>
+    <t>GO:0005865</t>
+  </si>
+  <si>
+    <t>GO:0036379</t>
+  </si>
+  <si>
     <t>GO:0005746</t>
   </si>
   <si>
-    <t>GO:0043596</t>
-  </si>
-  <si>
-    <t>GO:0071013</t>
-  </si>
-  <si>
-    <t>GO:0000775</t>
-  </si>
-  <si>
-    <t>GO:0005684</t>
-  </si>
-  <si>
     <t>GO:0031838</t>
   </si>
   <si>
+    <t>GO:0009897</t>
+  </si>
+  <si>
+    <t>GO:0042611</t>
+  </si>
+  <si>
+    <t>GO:0030687</t>
+  </si>
+  <si>
+    <t>GO:0099081</t>
+  </si>
+  <si>
+    <t>GO:0099512</t>
+  </si>
+  <si>
     <t>GO:0016591</t>
   </si>
   <si>
-    <t>GO:0030134</t>
-  </si>
-  <si>
-    <t>GO:0009897</t>
-  </si>
-  <si>
-    <t>GO:0042611</t>
-  </si>
-  <si>
-    <t>GO:0099512</t>
-  </si>
-  <si>
-    <t>GO:0030312</t>
-  </si>
-  <si>
-    <t>GO:0031012</t>
-  </si>
-  <si>
-    <t>GO:0099081</t>
-  </si>
-  <si>
     <t>GO:0070469</t>
   </si>
   <si>
-    <t>GO:0005865</t>
-  </si>
-  <si>
-    <t>GO:0036379</t>
+    <t>GO:0030017</t>
+  </si>
+  <si>
+    <t>GO:0030894</t>
+  </si>
+  <si>
+    <t>GO:0043601</t>
+  </si>
+  <si>
+    <t>GO:0032040</t>
   </si>
   <si>
     <t>GO:0000314</t>
@@ -182,16 +197,10 @@
     <t>GO:0005763</t>
   </si>
   <si>
-    <t>GO:0030894</t>
-  </si>
-  <si>
-    <t>GO:0043601</t>
-  </si>
-  <si>
     <t>GO:0005665</t>
   </si>
   <si>
-    <t>GO:0030017</t>
+    <t>GO:0005861</t>
   </si>
   <si>
     <t>GO:0030016</t>
@@ -200,181 +209,187 @@
     <t>GO:0005686</t>
   </si>
   <si>
+    <t>GO:0030424</t>
+  </si>
+  <si>
+    <t>GO:0140534</t>
+  </si>
+  <si>
+    <t>GO:0005736</t>
+  </si>
+  <si>
+    <t>GO:0030686</t>
+  </si>
+  <si>
+    <t>GO:1905368</t>
+  </si>
+  <si>
+    <t>GO:0000307</t>
+  </si>
+  <si>
+    <t>GO:0043292</t>
+  </si>
+  <si>
     <t>GO:0005643</t>
   </si>
   <si>
-    <t>GO:0043292</t>
-  </si>
-  <si>
-    <t>GO:1905368</t>
-  </si>
-  <si>
-    <t>GO:0030687</t>
-  </si>
-  <si>
-    <t>GO:0005736</t>
-  </si>
-  <si>
-    <t>GO:0032040</t>
-  </si>
-  <si>
-    <t>GO:0005861</t>
-  </si>
-  <si>
-    <t>GO:0000307</t>
-  </si>
-  <si>
-    <t>GO:0030686</t>
-  </si>
-  <si>
-    <t>GO:0030424</t>
+    <t>GO:0005753</t>
+  </si>
+  <si>
+    <t>GO:0045259</t>
+  </si>
+  <si>
+    <t>GO:0001750</t>
+  </si>
+  <si>
+    <t>GO:0097731</t>
+  </si>
+  <si>
+    <t>GO:0097733</t>
+  </si>
+  <si>
+    <t>GO:0046540</t>
+  </si>
+  <si>
+    <t>GO:0005868</t>
+  </si>
+  <si>
+    <t>GO:0098552</t>
+  </si>
+  <si>
+    <t>GO:0042575</t>
   </si>
   <si>
     <t>GO:0098803</t>
   </si>
   <si>
-    <t>GO:0005753</t>
-  </si>
-  <si>
-    <t>GO:0045259</t>
-  </si>
-  <si>
-    <t>GO:0140534</t>
-  </si>
-  <si>
-    <t>GO:0001750</t>
-  </si>
-  <si>
-    <t>GO:0046540</t>
-  </si>
-  <si>
-    <t>GO:0042575</t>
-  </si>
-  <si>
-    <t>GO:0005868</t>
-  </si>
-  <si>
     <t>GO:0016469</t>
   </si>
   <si>
-    <t>GO:0097731</t>
-  </si>
-  <si>
-    <t>GO:0097733</t>
-  </si>
-  <si>
     <t>GO:0005869</t>
   </si>
   <si>
+    <t>GO:0005882</t>
+  </si>
+  <si>
     <t>GO:0005685</t>
   </si>
   <si>
-    <t>GO:0098552</t>
-  </si>
-  <si>
-    <t>GO:0005882</t>
-  </si>
-  <si>
     <t>GO:0045111</t>
   </si>
   <si>
+    <t>GO:0019774</t>
+  </si>
+  <si>
+    <t>GO:0032994</t>
+  </si>
+  <si>
+    <t>GO:0034358</t>
+  </si>
+  <si>
+    <t>GO:1990777</t>
+  </si>
+  <si>
+    <t>GO:0022624</t>
+  </si>
+  <si>
     <t>GO:0005742</t>
   </si>
   <si>
     <t>GO:0098799</t>
   </si>
   <si>
+    <t>GO:0045263</t>
+  </si>
+  <si>
+    <t>GO:0005885</t>
+  </si>
+  <si>
     <t>GO:0005666</t>
   </si>
   <si>
-    <t>GO:0022624</t>
+    <t>GO:0005682</t>
+  </si>
+  <si>
+    <t>GO:0090734</t>
+  </si>
+  <si>
+    <t>GO:0000276</t>
   </si>
   <si>
     <t>GO:0009986</t>
   </si>
   <si>
-    <t>GO:0090734</t>
-  </si>
-  <si>
-    <t>GO:0005682</t>
-  </si>
-  <si>
-    <t>GO:0000276</t>
-  </si>
-  <si>
-    <t>GO:0032994</t>
-  </si>
-  <si>
-    <t>GO:0034358</t>
-  </si>
-  <si>
-    <t>GO:1990777</t>
-  </si>
-  <si>
-    <t>GO:0019774</t>
+    <t>GO:0043679</t>
+  </si>
+  <si>
+    <t>GO:0097730</t>
+  </si>
+  <si>
+    <t>GO:0034708</t>
+  </si>
+  <si>
+    <t>GO:1905348</t>
+  </si>
+  <si>
+    <t>GO:0022626</t>
+  </si>
+  <si>
+    <t>GO:0030137</t>
+  </si>
+  <si>
+    <t>GO:1902554</t>
+  </si>
+  <si>
+    <t>GO:0005758</t>
+  </si>
+  <si>
+    <t>GO:0031970</t>
+  </si>
+  <si>
+    <t>GO:0031965</t>
+  </si>
+  <si>
+    <t>GO:0000779</t>
+  </si>
+  <si>
+    <t>GO:1902555</t>
   </si>
   <si>
     <t>GO:0033177</t>
   </si>
   <si>
-    <t>GO:1905348</t>
-  </si>
-  <si>
-    <t>GO:0000779</t>
-  </si>
-  <si>
-    <t>GO:0005885</t>
-  </si>
-  <si>
-    <t>GO:0043679</t>
-  </si>
-  <si>
-    <t>GO:0097730</t>
-  </si>
-  <si>
-    <t>GO:0022626</t>
-  </si>
-  <si>
-    <t>GO:0034708</t>
-  </si>
-  <si>
-    <t>GO:0031965</t>
-  </si>
-  <si>
     <t>GO:0030662</t>
   </si>
   <si>
-    <t>GO:0045263</t>
+    <t>GO:0030018</t>
+  </si>
+  <si>
+    <t>GO:0031674</t>
+  </si>
+  <si>
+    <t>GO:0150034</t>
+  </si>
+  <si>
+    <t>GO:0000177</t>
+  </si>
+  <si>
+    <t>GO:0044306</t>
+  </si>
+  <si>
+    <t>GO:0034719</t>
+  </si>
+  <si>
+    <t>GO:0000793</t>
   </si>
   <si>
     <t>GO:0005689</t>
   </si>
   <si>
-    <t>GO:0005758</t>
-  </si>
-  <si>
-    <t>GO:0031970</t>
-  </si>
-  <si>
-    <t>GO:0030018</t>
-  </si>
-  <si>
-    <t>GO:0000793</t>
-  </si>
-  <si>
-    <t>GO:0005875</t>
-  </si>
-  <si>
-    <t>GO:0150034</t>
-  </si>
-  <si>
-    <t>GO:0046930</t>
-  </si>
-  <si>
-    <t>GO:0030663</t>
-  </si>
-  <si>
-    <t>GO:0030137</t>
+    <t>nucleosome</t>
+  </si>
+  <si>
+    <t>DNA packaging complex</t>
   </si>
   <si>
     <t>organellar ribosome</t>
@@ -383,18 +398,24 @@
     <t>mitochondrial ribosome</t>
   </si>
   <si>
-    <t>nucleosome</t>
-  </si>
-  <si>
-    <t>DNA packaging complex</t>
-  </si>
-  <si>
     <t>replication fork</t>
   </si>
   <si>
     <t>nuclear chromosome</t>
   </si>
   <si>
+    <t>DNA-directed RNA polymerase complex</t>
+  </si>
+  <si>
+    <t>RNA polymerase complex</t>
+  </si>
+  <si>
+    <t>nuclear DNA-directed RNA polymerase complex</t>
+  </si>
+  <si>
+    <t>protein-DNA complex</t>
+  </si>
+  <si>
     <t>mitochondrial respiratory chain complex I</t>
   </si>
   <si>
@@ -404,27 +425,15 @@
     <t>respiratory chain complex I</t>
   </si>
   <si>
+    <t>sno(s)RNA-containing ribonucleoprotein complex</t>
+  </si>
+  <si>
+    <t>Sm-like protein family complex</t>
+  </si>
+  <si>
     <t>preribosome</t>
   </si>
   <si>
-    <t>DNA-directed RNA polymerase complex</t>
-  </si>
-  <si>
-    <t>RNA polymerase complex</t>
-  </si>
-  <si>
-    <t>nuclear DNA-directed RNA polymerase complex</t>
-  </si>
-  <si>
-    <t>Sm-like protein family complex</t>
-  </si>
-  <si>
-    <t>protein-DNA complex</t>
-  </si>
-  <si>
-    <t>sno(s)RNA-containing ribonucleoprotein complex</t>
-  </si>
-  <si>
     <t>proteasome regulatory particle</t>
   </si>
   <si>
@@ -437,15 +446,18 @@
     <t>hemoglobin complex</t>
   </si>
   <si>
+    <t>precatalytic spliceosome</t>
+  </si>
+  <si>
     <t>spliceosomal tri-snRNP complex</t>
   </si>
   <si>
-    <t>precatalytic spliceosome</t>
-  </si>
-  <si>
     <t>collagen-containing extracellular matrix</t>
   </si>
   <si>
+    <t>nuclear replication fork</t>
+  </si>
+  <si>
     <t>organellar large ribosomal subunit</t>
   </si>
   <si>
@@ -455,55 +467,67 @@
     <t>oxidoreductase complex</t>
   </si>
   <si>
+    <t>chromosome, centromeric region</t>
+  </si>
+  <si>
+    <t>catalytic step 2 spliceosome</t>
+  </si>
+  <si>
+    <t>U2-type spliceosomal complex</t>
+  </si>
+  <si>
+    <t>COPII-coated ER to Golgi transport vesicle</t>
+  </si>
+  <si>
+    <t>external encapsulating structure</t>
+  </si>
+  <si>
+    <t>extracellular matrix</t>
+  </si>
+  <si>
+    <t>striated muscle thin filament</t>
+  </si>
+  <si>
+    <t>myofilament</t>
+  </si>
+  <si>
     <t>mitochondrial respirasome</t>
   </si>
   <si>
-    <t>nuclear replication fork</t>
-  </si>
-  <si>
-    <t>catalytic step 2 spliceosome</t>
-  </si>
-  <si>
-    <t>chromosome, centromeric region</t>
-  </si>
-  <si>
-    <t>U2-type spliceosomal complex</t>
-  </si>
-  <si>
     <t>haptoglobin-hemoglobin complex</t>
   </si>
   <si>
+    <t>external side of plasma membrane</t>
+  </si>
+  <si>
+    <t>MHC protein complex</t>
+  </si>
+  <si>
+    <t>preribosome, large subunit precursor</t>
+  </si>
+  <si>
+    <t>supramolecular polymer</t>
+  </si>
+  <si>
+    <t>supramolecular fiber</t>
+  </si>
+  <si>
     <t>RNA polymerase II, holoenzyme</t>
   </si>
   <si>
-    <t>COPII-coated ER to Golgi transport vesicle</t>
-  </si>
-  <si>
-    <t>external side of plasma membrane</t>
-  </si>
-  <si>
-    <t>MHC protein complex</t>
-  </si>
-  <si>
-    <t>supramolecular fiber</t>
-  </si>
-  <si>
-    <t>external encapsulating structure</t>
-  </si>
-  <si>
-    <t>extracellular matrix</t>
-  </si>
-  <si>
-    <t>supramolecular polymer</t>
-  </si>
-  <si>
     <t>respirasome</t>
   </si>
   <si>
-    <t>striated muscle thin filament</t>
-  </si>
-  <si>
-    <t>myofilament</t>
+    <t>sarcomere</t>
+  </si>
+  <si>
+    <t>replisome</t>
+  </si>
+  <si>
+    <t>nuclear replisome</t>
+  </si>
+  <si>
+    <t>small-subunit processome</t>
   </si>
   <si>
     <t>organellar small ribosomal subunit</t>
@@ -512,16 +536,10 @@
     <t>mitochondrial small ribosomal subunit</t>
   </si>
   <si>
-    <t>replisome</t>
-  </si>
-  <si>
-    <t>nuclear replisome</t>
-  </si>
-  <si>
     <t>RNA polymerase II, core complex</t>
   </si>
   <si>
-    <t>sarcomere</t>
+    <t>troponin complex</t>
   </si>
   <si>
     <t>myofibril</t>
@@ -530,216 +548,216 @@
     <t>U2 snRNP</t>
   </si>
   <si>
+    <t>axon</t>
+  </si>
+  <si>
+    <t>endoplasmic reticulum protein-containing complex</t>
+  </si>
+  <si>
+    <t>RNA polymerase I complex</t>
+  </si>
+  <si>
+    <t>90S preribosome</t>
+  </si>
+  <si>
+    <t>peptidase complex</t>
+  </si>
+  <si>
+    <t>cyclin-dependent protein kinase holoenzyme complex</t>
+  </si>
+  <si>
+    <t>contractile fiber</t>
+  </si>
+  <si>
     <t>nuclear pore</t>
   </si>
   <si>
-    <t>contractile fiber</t>
-  </si>
-  <si>
-    <t>peptidase complex</t>
-  </si>
-  <si>
-    <t>preribosome, large subunit precursor</t>
-  </si>
-  <si>
-    <t>RNA polymerase I complex</t>
-  </si>
-  <si>
-    <t>small-subunit processome</t>
-  </si>
-  <si>
-    <t>troponin complex</t>
-  </si>
-  <si>
-    <t>cyclin-dependent protein kinase holoenzyme complex</t>
-  </si>
-  <si>
-    <t>90S preribosome</t>
-  </si>
-  <si>
-    <t>axon</t>
+    <t>mitochondrial proton-transporting ATP synthase complex</t>
+  </si>
+  <si>
+    <t>proton-transporting ATP synthase complex</t>
+  </si>
+  <si>
+    <t>photoreceptor outer segment</t>
+  </si>
+  <si>
+    <t>9+0 non-motile cilium</t>
+  </si>
+  <si>
+    <t>photoreceptor cell cilium</t>
+  </si>
+  <si>
+    <t>U4/U6 x U5 tri-snRNP complex</t>
+  </si>
+  <si>
+    <t>cytoplasmic dynein complex</t>
+  </si>
+  <si>
+    <t>side of membrane</t>
+  </si>
+  <si>
+    <t>DNA polymerase complex</t>
   </si>
   <si>
     <t>respiratory chain complex</t>
   </si>
   <si>
-    <t>mitochondrial proton-transporting ATP synthase complex</t>
-  </si>
-  <si>
-    <t>proton-transporting ATP synthase complex</t>
-  </si>
-  <si>
-    <t>endoplasmic reticulum protein-containing complex</t>
-  </si>
-  <si>
-    <t>photoreceptor outer segment</t>
-  </si>
-  <si>
-    <t>U4/U6 x U5 tri-snRNP complex</t>
-  </si>
-  <si>
-    <t>DNA polymerase complex</t>
-  </si>
-  <si>
-    <t>cytoplasmic dynein complex</t>
-  </si>
-  <si>
     <t>proton-transporting two-sector ATPase complex</t>
   </si>
   <si>
-    <t>9+0 non-motile cilium</t>
-  </si>
-  <si>
-    <t>photoreceptor cell cilium</t>
-  </si>
-  <si>
     <t>dynactin complex</t>
   </si>
   <si>
+    <t>intermediate filament</t>
+  </si>
+  <si>
     <t>U1 snRNP</t>
   </si>
   <si>
-    <t>side of membrane</t>
-  </si>
-  <si>
-    <t>intermediate filament</t>
-  </si>
-  <si>
     <t>intermediate filament cytoskeleton</t>
   </si>
   <si>
+    <t>proteasome core complex, beta-subunit complex</t>
+  </si>
+  <si>
+    <t>protein-lipid complex</t>
+  </si>
+  <si>
+    <t>plasma lipoprotein particle</t>
+  </si>
+  <si>
+    <t>lipoprotein particle</t>
+  </si>
+  <si>
+    <t>proteasome accessory complex</t>
+  </si>
+  <si>
     <t>mitochondrial outer membrane translocase complex</t>
   </si>
   <si>
     <t>outer mitochondrial membrane protein complex</t>
   </si>
   <si>
+    <t>proton-transporting ATP synthase complex, coupling factor F(o)</t>
+  </si>
+  <si>
+    <t>Arp2/3 protein complex</t>
+  </si>
+  <si>
     <t>RNA polymerase III complex</t>
   </si>
   <si>
-    <t>proteasome accessory complex</t>
+    <t>U5 snRNP</t>
+  </si>
+  <si>
+    <t>site of DNA damage</t>
+  </si>
+  <si>
+    <t>mitochondrial proton-transporting ATP synthase complex, coupling factor F(o)</t>
   </si>
   <si>
     <t>cell surface</t>
   </si>
   <si>
-    <t>site of DNA damage</t>
-  </si>
-  <si>
-    <t>U5 snRNP</t>
-  </si>
-  <si>
-    <t>mitochondrial proton-transporting ATP synthase complex, coupling factor F(o)</t>
-  </si>
-  <si>
-    <t>protein-lipid complex</t>
-  </si>
-  <si>
-    <t>plasma lipoprotein particle</t>
-  </si>
-  <si>
-    <t>lipoprotein particle</t>
-  </si>
-  <si>
-    <t>proteasome core complex, beta-subunit complex</t>
+    <t>axon terminus</t>
+  </si>
+  <si>
+    <t>non-motile cilium</t>
+  </si>
+  <si>
+    <t>methyltransferase complex</t>
+  </si>
+  <si>
+    <t>endonuclease complex</t>
+  </si>
+  <si>
+    <t>cytosolic ribosome</t>
+  </si>
+  <si>
+    <t>COPI-coated vesicle</t>
+  </si>
+  <si>
+    <t>serine/threonine protein kinase complex</t>
+  </si>
+  <si>
+    <t>mitochondrial intermembrane space</t>
+  </si>
+  <si>
+    <t>organelle envelope lumen</t>
+  </si>
+  <si>
+    <t>nuclear membrane</t>
+  </si>
+  <si>
+    <t>condensed chromosome, centromeric region</t>
+  </si>
+  <si>
+    <t>endoribonuclease complex</t>
   </si>
   <si>
     <t>proton-transporting two-sector ATPase complex, proton-transporting domain</t>
   </si>
   <si>
-    <t>endonuclease complex</t>
-  </si>
-  <si>
-    <t>condensed chromosome, centromeric region</t>
-  </si>
-  <si>
-    <t>Arp2/3 protein complex</t>
-  </si>
-  <si>
-    <t>axon terminus</t>
-  </si>
-  <si>
-    <t>non-motile cilium</t>
-  </si>
-  <si>
-    <t>cytosolic ribosome</t>
-  </si>
-  <si>
-    <t>methyltransferase complex</t>
-  </si>
-  <si>
-    <t>nuclear membrane</t>
-  </si>
-  <si>
     <t>coated vesicle membrane</t>
   </si>
   <si>
-    <t>proton-transporting ATP synthase complex, coupling factor F(o)</t>
+    <t>Z disc</t>
+  </si>
+  <si>
+    <t>I band</t>
+  </si>
+  <si>
+    <t>distal axon</t>
+  </si>
+  <si>
+    <t>cytoplasmic exosome (RNase complex)</t>
+  </si>
+  <si>
+    <t>neuron projection terminus</t>
+  </si>
+  <si>
+    <t>SMN-Sm protein complex</t>
+  </si>
+  <si>
+    <t>condensed chromosome</t>
   </si>
   <si>
     <t>U12-type spliceosomal complex</t>
   </si>
   <si>
-    <t>mitochondrial intermembrane space</t>
-  </si>
-  <si>
-    <t>organelle envelope lumen</t>
-  </si>
-  <si>
-    <t>Z disc</t>
-  </si>
-  <si>
-    <t>condensed chromosome</t>
-  </si>
-  <si>
-    <t>microtubule associated complex</t>
-  </si>
-  <si>
-    <t>distal axon</t>
-  </si>
-  <si>
-    <t>pore complex</t>
-  </si>
-  <si>
-    <t>COPI-coated vesicle membrane</t>
-  </si>
-  <si>
-    <t>COPI-coated vesicle</t>
+    <t>tags=49%, list=6%, signal=46%</t>
+  </si>
+  <si>
+    <t>tags=29%, list=6%, signal=27%</t>
   </si>
   <si>
     <t>tags=60%, list=22%, signal=47%</t>
   </si>
   <si>
-    <t>tags=49%, list=6%, signal=46%</t>
-  </si>
-  <si>
-    <t>tags=29%, list=6%, signal=27%</t>
-  </si>
-  <si>
     <t>tags=59%, list=18%, signal=49%</t>
   </si>
   <si>
     <t>tags=48%, list=22%, signal=37%</t>
   </si>
   <si>
+    <t>tags=51%, list=24%, signal=39%</t>
+  </si>
+  <si>
+    <t>tags=25%, list=6%, signal=24%</t>
+  </si>
+  <si>
     <t>tags=66%, list=19%, signal=53%</t>
   </si>
   <si>
+    <t>tags=88%, list=16%, signal=74%</t>
+  </si>
+  <si>
+    <t>tags=51%, list=19%, signal=42%</t>
+  </si>
+  <si>
     <t>tags=62%, list=26%, signal=46%</t>
   </si>
   <si>
-    <t>tags=51%, list=24%, signal=39%</t>
-  </si>
-  <si>
-    <t>tags=51%, list=19%, signal=42%</t>
-  </si>
-  <si>
-    <t>tags=25%, list=6%, signal=24%</t>
-  </si>
-  <si>
-    <t>tags=88%, list=16%, signal=74%</t>
-  </si>
-  <si>
     <t>tags=75%, list=12%, signal=66%</t>
   </si>
   <si>
@@ -758,64 +776,73 @@
     <t>tags=40%, list=19%, signal=33%</t>
   </si>
   <si>
+    <t>tags=61%, list=18%, signal=50%</t>
+  </si>
+  <si>
     <t>tags=62%, list=22%, signal=48%</t>
   </si>
   <si>
     <t>tags=56%, list=23%, signal=43%</t>
   </si>
   <si>
+    <t>tags=49%, list=25%, signal=37%</t>
+  </si>
+  <si>
+    <t>tags=53%, list=21%, signal=42%</t>
+  </si>
+  <si>
+    <t>tags=52%, list=26%, signal=39%</t>
+  </si>
+  <si>
+    <t>tags=45%, list=17%, signal=37%</t>
+  </si>
+  <si>
+    <t>tags=34%, list=19%, signal=28%</t>
+  </si>
+  <si>
+    <t>tags=50%, list=13%, signal=43%</t>
+  </si>
+  <si>
     <t>tags=64%, list=21%, signal=51%</t>
   </si>
   <si>
-    <t>tags=61%, list=18%, signal=50%</t>
-  </si>
-  <si>
-    <t>tags=53%, list=21%, signal=42%</t>
-  </si>
-  <si>
-    <t>tags=49%, list=25%, signal=37%</t>
-  </si>
-  <si>
-    <t>tags=52%, list=26%, signal=39%</t>
-  </si>
-  <si>
     <t>tags=40%, list=0%, signal=40%</t>
   </si>
   <si>
+    <t>tags=45%, list=23%, signal=35%</t>
+  </si>
+  <si>
+    <t>tags=60%, list=3%, signal=58%</t>
+  </si>
+  <si>
+    <t>tags=65%, list=17%, signal=53%</t>
+  </si>
+  <si>
+    <t>tags=32%, list=21%, signal=25%</t>
+  </si>
+  <si>
     <t>tags=48%, list=26%, signal=36%</t>
   </si>
   <si>
-    <t>tags=45%, list=17%, signal=37%</t>
-  </si>
-  <si>
-    <t>tags=45%, list=23%, signal=35%</t>
-  </si>
-  <si>
-    <t>tags=60%, list=3%, signal=58%</t>
-  </si>
-  <si>
-    <t>tags=32%, list=21%, signal=25%</t>
-  </si>
-  <si>
-    <t>tags=34%, list=19%, signal=28%</t>
-  </si>
-  <si>
     <t>tags=59%, list=19%, signal=47%</t>
   </si>
   <si>
-    <t>tags=50%, list=13%, signal=43%</t>
+    <t>tags=34%, list=17%, signal=29%</t>
+  </si>
+  <si>
+    <t>tags=64%, list=13%, signal=56%</t>
+  </si>
+  <si>
+    <t>tags=73%, list=28%, signal=52%</t>
   </si>
   <si>
     <t>tags=75%, list=31%, signal=52%</t>
   </si>
   <si>
-    <t>tags=64%, list=13%, signal=56%</t>
-  </si>
-  <si>
     <t>tags=73%, list=15%, signal=62%</t>
   </si>
   <si>
-    <t>tags=34%, list=17%, signal=29%</t>
+    <t>tags=52%, list=13%, signal=46%</t>
   </si>
   <si>
     <t>tags=33%, list=17%, signal=27%</t>
@@ -824,186 +851,186 @@
     <t>tags=81%, list=27%, signal=60%</t>
   </si>
   <si>
+    <t>tags=50%, list=29%, signal=36%</t>
+  </si>
+  <si>
+    <t>tags=51%, list=23%, signal=40%</t>
+  </si>
+  <si>
+    <t>tags=69%, list=20%, signal=55%</t>
+  </si>
+  <si>
+    <t>tags=65%, list=22%, signal=51%</t>
+  </si>
+  <si>
+    <t>tags=50%, list=12%, signal=44%</t>
+  </si>
+  <si>
+    <t>tags=56%, list=20%, signal=44%</t>
+  </si>
+  <si>
+    <t>tags=32%, list=17%, signal=27%</t>
+  </si>
+  <si>
     <t>tags=53%, list=16%, signal=44%</t>
   </si>
   <si>
-    <t>tags=32%, list=17%, signal=27%</t>
-  </si>
-  <si>
-    <t>tags=50%, list=12%, signal=44%</t>
-  </si>
-  <si>
-    <t>tags=65%, list=17%, signal=53%</t>
-  </si>
-  <si>
-    <t>tags=69%, list=20%, signal=55%</t>
-  </si>
-  <si>
-    <t>tags=73%, list=28%, signal=52%</t>
-  </si>
-  <si>
-    <t>tags=52%, list=13%, signal=46%</t>
-  </si>
-  <si>
-    <t>tags=56%, list=20%, signal=44%</t>
-  </si>
-  <si>
-    <t>tags=65%, list=22%, signal=51%</t>
-  </si>
-  <si>
-    <t>tags=50%, list=29%, signal=36%</t>
+    <t>tags=72%, list=27%, signal=53%</t>
+  </si>
+  <si>
+    <t>tags=26%, list=5%, signal=25%</t>
+  </si>
+  <si>
+    <t>tags=24%, list=5%, signal=23%</t>
+  </si>
+  <si>
+    <t>tags=58%, list=19%, signal=47%</t>
+  </si>
+  <si>
+    <t>tags=71%, list=30%, signal=50%</t>
+  </si>
+  <si>
+    <t>tags=39%, list=25%, signal=30%</t>
+  </si>
+  <si>
+    <t>tags=54%, list=13%, signal=47%</t>
   </si>
   <si>
     <t>tags=57%, list=19%, signal=46%</t>
   </si>
   <si>
-    <t>tags=72%, list=27%, signal=53%</t>
-  </si>
-  <si>
-    <t>tags=51%, list=23%, signal=40%</t>
-  </si>
-  <si>
-    <t>tags=26%, list=5%, signal=25%</t>
-  </si>
-  <si>
-    <t>tags=58%, list=19%, signal=47%</t>
-  </si>
-  <si>
-    <t>tags=54%, list=13%, signal=47%</t>
-  </si>
-  <si>
-    <t>tags=71%, list=30%, signal=50%</t>
-  </si>
-  <si>
     <t>tags=43%, list=22%, signal=34%</t>
   </si>
   <si>
-    <t>tags=24%, list=5%, signal=23%</t>
-  </si>
-  <si>
     <t>tags=73%, list=23%, signal=56%</t>
   </si>
   <si>
+    <t>tags=48%, list=21%, signal=38%</t>
+  </si>
+  <si>
     <t>tags=62%, list=16%, signal=53%</t>
   </si>
   <si>
-    <t>tags=39%, list=25%, signal=30%</t>
-  </si>
-  <si>
-    <t>tags=48%, list=21%, signal=38%</t>
+    <t>tags=33%, list=1%, signal=33%</t>
+  </si>
+  <si>
+    <t>tags=77%, list=21%, signal=61%</t>
+  </si>
+  <si>
+    <t>tags=70%, list=12%, signal=61%</t>
   </si>
   <si>
     <t>tags=69%, list=26%, signal=51%</t>
   </si>
   <si>
+    <t>tags=67%, list=22%, signal=52%</t>
+  </si>
+  <si>
+    <t>tags=50%, list=16%, signal=42%</t>
+  </si>
+  <si>
     <t>tags=72%, list=25%, signal=54%</t>
   </si>
   <si>
-    <t>tags=70%, list=12%, signal=61%</t>
+    <t>tags=64%, list=16%, signal=54%</t>
+  </si>
+  <si>
+    <t>tags=35%, list=18%, signal=28%</t>
+  </si>
+  <si>
+    <t>tags=73%, list=22%, signal=57%</t>
   </si>
   <si>
     <t>tags=31%, list=22%, signal=25%</t>
   </si>
   <si>
-    <t>tags=35%, list=18%, signal=28%</t>
-  </si>
-  <si>
-    <t>tags=64%, list=16%, signal=54%</t>
-  </si>
-  <si>
-    <t>tags=73%, list=22%, signal=57%</t>
-  </si>
-  <si>
-    <t>tags=77%, list=21%, signal=61%</t>
-  </si>
-  <si>
-    <t>tags=33%, list=1%, signal=33%</t>
+    <t>tags=50%, list=17%, signal=42%</t>
+  </si>
+  <si>
+    <t>tags=28%, list=5%, signal=26%</t>
+  </si>
+  <si>
+    <t>tags=54%, list=24%, signal=41%</t>
+  </si>
+  <si>
+    <t>tags=55%, list=27%, signal=40%</t>
+  </si>
+  <si>
+    <t>tags=60%, list=38%, signal=38%</t>
+  </si>
+  <si>
+    <t>tags=71%, list=24%, signal=54%</t>
+  </si>
+  <si>
+    <t>tags=39%, list=19%, signal=32%</t>
+  </si>
+  <si>
+    <t>tags=40%, list=15%, signal=34%</t>
+  </si>
+  <si>
+    <t>tags=36%, list=11%, signal=32%</t>
+  </si>
+  <si>
+    <t>tags=47%, list=24%, signal=36%</t>
+  </si>
+  <si>
+    <t>tags=53%, list=26%, signal=39%</t>
   </si>
   <si>
     <t>tags=55%, list=29%, signal=39%</t>
   </si>
   <si>
-    <t>tags=55%, list=27%, signal=40%</t>
-  </si>
-  <si>
-    <t>tags=47%, list=24%, signal=36%</t>
-  </si>
-  <si>
-    <t>tags=50%, list=16%, signal=42%</t>
-  </si>
-  <si>
-    <t>tags=50%, list=17%, signal=42%</t>
-  </si>
-  <si>
-    <t>tags=28%, list=5%, signal=26%</t>
-  </si>
-  <si>
-    <t>tags=60%, list=38%, signal=38%</t>
-  </si>
-  <si>
-    <t>tags=54%, list=24%, signal=41%</t>
-  </si>
-  <si>
-    <t>tags=36%, list=11%, signal=32%</t>
-  </si>
-  <si>
-    <t>tags=67%, list=22%, signal=52%</t>
+    <t>tags=35%, list=19%, signal=28%</t>
+  </si>
+  <si>
+    <t>tags=32%, list=19%, signal=26%</t>
+  </si>
+  <si>
+    <t>tags=51%, list=27%, signal=37%</t>
+  </si>
+  <si>
+    <t>tags=80%, list=27%, signal=58%</t>
+  </si>
+  <si>
+    <t>tags=48%, list=17%, signal=40%</t>
+  </si>
+  <si>
+    <t>tags=60%, list=16%, signal=51%</t>
+  </si>
+  <si>
+    <t>tags=39%, list=24%, signal=30%</t>
   </si>
   <si>
     <t>tags=56%, list=17%, signal=46%</t>
   </si>
   <si>
-    <t>tags=40%, list=15%, signal=34%</t>
-  </si>
-  <si>
-    <t>tags=35%, list=19%, signal=28%</t>
-  </si>
-  <si>
-    <t>tags=39%, list=24%, signal=30%</t>
-  </si>
-  <si>
-    <t>tags=44%, list=24%, signal=33%</t>
-  </si>
-  <si>
-    <t>tags=51%, list=27%, signal=37%</t>
-  </si>
-  <si>
-    <t>tags=38%, list=9%, signal=35%</t>
-  </si>
-  <si>
-    <t>tags=77%, list=24%, signal=59%</t>
-  </si>
-  <si>
-    <t>tags=71%, list=24%, signal=54%</t>
+    <t>zgc:110425/sos1/kat6a/zgc:110216/zgc:113983/zgc:153405/zgc:154164/zgc:163040/zgc:163061/zgc:173552/zgc:194989/si:dkey-23a13.17/si:ch73-368j24.12/zgc:113984/zgc:173587/hist1h2a6/zgc:173585/si:ch211-103n10.5</t>
   </si>
   <si>
     <t>mrps6/mrpl53/dap3/mrpl12/chchd1/mrpl13/mrpl54/mrpl36/mrpl16/mrpl27/mrps34/mrpl51/mrpl21/mrpl43/mrpl38/zgc:171480/mrpl14/mrps22/mrps2/mrps18a/mrpl11/mrps10/mrpl17/mrps30/mrpl46/mrpl57/mrps24/mrpl3/mrpl47/mrps17/mrpl24/mrps14/mrpl48/mrpl23/mrpl15/mrpl40</t>
   </si>
   <si>
-    <t>zgc:110425/sos1/kat6a/zgc:110216/zgc:113983/zgc:153405/zgc:154164/zgc:163040/zgc:163061/zgc:173552/zgc:194989/si:dkey-23a13.17/si:ch73-368j24.12/zgc:113984/zgc:173587/hist1h2a6/zgc:173585/si:ch211-103n10.5</t>
-  </si>
-  <si>
     <t>pold1/rpa3/rpa2/rfc5/rpa1/rfc3/pif1/rfc2/pola2/wdhd1/prim2/rfc4/xrcc3/rad51b/pold3/primpol/tonsl/mms22l/tipin</t>
   </si>
   <si>
     <t>gins2/pold1/rpa3/rpa2/orc5/orc4/orc3/actr6/spo11/rpa1/rad51/pola2/wdhd1/prim2/smarcb1a/pole3/pold3/pole4/anp32e/brms1la/swi5/ruvbl2/tonsl/smarcb1b/gins3/rad9b/mms22l/slx1b/gins4/uchl5/tipin/mei4/dmap1/hnrnpub/morf4l1/ino80e/ruvbl1</t>
   </si>
   <si>
+    <t>polr2h/polr2g/polr1e/taf10/polr1c/taf12/polr2c/polr1b/pola2/polr2l/polr1h/prim2/gtf2a2/polr2eb/cdk7/polr2i/polr3f/polr3h/polr3c/gtf2h4/taf7/gtf2h5/gtf2e2/polr2b/polr2d/polr3gla/polr1f/gtf2h2/ctr9/polr3k/ccnh/polr3g/cdc73/polr1d/mnat1/polr3e/gtf2h3/gtf2f2a</t>
+  </si>
+  <si>
     <t>ndufa11/ndufab1b/ndufs7/ndufab1a/ndufb6/ndufs2/ndufb9/ndufc1/ndufa6/ndufa12/ndufs4/ndufb5/ndufa10/ndufb2/ndufs3/ndufv1/ndufs6/ndufs5/ndufb8/ndufa3/ndufb10</t>
   </si>
   <si>
+    <t>snu13b/nop10/dkc1/gar1/snrpf/rpp40/nop56/nhp2/nop58/pop5/lsm6/fbl/rpp25l/rpp25b/snu13a</t>
+  </si>
+  <si>
+    <t>snu13b/lsm7/snrpd2/snrpd3l/sf3b5/snrpf/snrpc/eftud2/lsm8/prpf4/txnl4a/snrpe/ddx20/snrpb2/gemin8/phf5a/sf3b6/clns1a/lsm6/snrpg/lsm1/lsm4/snrpa/snrpb/snrpd1/snu13a/prpf31/sf3b3</t>
+  </si>
+  <si>
     <t>nip7/snu13b/wdr12/wdr36/imp4/rrp9/nop56/rrs1/nol6/noc4l/nop58/ebna1bp2/utp11/mrto4/nol10/eif6/fbl/wdr74/dcaf13/mak16/wdr3/pes/snu13a/srfbp1/bysl/noc2l/rpf1/tbl3/pwp2h/utp4/imp3/ppan/bms1/utp6/tsr1/ngdn/ftsj3/pdcd11/fcf1</t>
   </si>
   <si>
-    <t>polr2h/polr2g/polr1e/taf10/polr1c/taf12/polr2c/polr1b/pola2/polr2l/polr1h/prim2/gtf2a2/polr2eb/cdk7/polr2i/polr3f/polr3h/polr3c/gtf2h4/taf7/gtf2h5/gtf2e2/polr2b/polr2d/polr3gla/polr1f/gtf2h2/ctr9/polr3k/ccnh/polr3g/cdc73/polr1d/mnat1/polr3e/gtf2h3/gtf2f2a</t>
-  </si>
-  <si>
-    <t>snu13b/lsm7/snrpd2/snrpd3l/sf3b5/snrpf/snrpc/eftud2/lsm8/prpf4/txnl4a/snrpe/ddx20/snrpb2/gemin8/phf5a/sf3b6/clns1a/lsm6/snrpg/lsm1/lsm4/snrpa/snrpb/snrpd1/snu13a/prpf31/sf3b3</t>
-  </si>
-  <si>
-    <t>snu13b/nop10/dkc1/gar1/snrpf/rpp40/nop56/nhp2/nop58/pop5/lsm6/fbl/rpp25l/rpp25b/snu13a</t>
-  </si>
-  <si>
     <t>psmd11b/psmc6/psmd8/psmd7/psmc4/psmd4b/psmc2/psmd1/psmd13/psmd14/psmd3/psmc1a/psmc5/psmd6/psmd11a</t>
   </si>
   <si>
@@ -1016,76 +1043,85 @@
     <t>hbbe2/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
   </si>
   <si>
+    <t>snu13b/snrpd2/snrpd3l/sf3b5/lsm8/smu1a/snrpe/phf5a/sf3b6/snrpg/snrpd1/snu13a/prpf31/sf3b3</t>
+  </si>
+  <si>
     <t>snu13b/lsm7/snrpd2/snrpd3l/eftud2/lsm8/prpf4/txnl4a/snrpe/lsm6/snrpg/lsm4/snrpb/snrpd1/snu13a/prpf31</t>
   </si>
   <si>
-    <t>snu13b/snrpd2/snrpd3l/sf3b5/lsm8/smu1a/snrpe/phf5a/sf3b6/snrpg/snrpd1/snu13a/prpf31/sf3b3</t>
-  </si>
-  <si>
     <t>angptl7/zp2l2/loxl3a/col11a1b/angptl2a/col11a1a/fbn2b/col5a2a/frem2a/otol1a/col5a3b/lama5/anxa2a/coch/lama1/loxa/thbs4b/frem3/loxl5a/mfap4.4/angpt2a/matn3a/fras1/angptl1b/loxl5b/lamb4/loxl1/ntn2/fibcd1b/mfap4.10/frem2b/angptl3/fn1b/vtnb/fgg/fgb/mgp/fga/thbs3a/matn1/f2/anxa2b/zgc:113232/elnb/vtna/fgl2a</t>
   </si>
   <si>
+    <t>pold1/rpa3/rpa2/rpa1/pola2/wdhd1/prim2/pold3/tonsl/mms22l/tipin</t>
+  </si>
+  <si>
     <t>mrpl53/mrpl12/mrpl13/mrpl54/mrpl36/mrpl16/mrpl27/mrpl51/mrpl21/mrpl43/mrpl38/zgc:171480/mrpl14/mrpl11/mrpl17/mrps30/mrpl46/mrpl3/mrpl47/mrpl24/mrpl23/mrpl15/mrpl40</t>
   </si>
   <si>
     <t>ndufa11/ndufab1b/cyc1/ndufs7/sdhdb/ndufab1a/uqcrfs1/ndufb6/rrm1/noxa1/ndufs2/uqcrh/ndufb9/ndufc1/ndufa6/ndufa12/ndufs4/gpd1l/nox1/sdhb/ndufb5/pdhb/ndufa10/ndufb2/sdhc/ndufs3/ndufv1/ndufs6/ndufs5/dlst/ndufb8/ndufa3/ndufb10/bckdha/uqcrq/dlat/mrps36/gcsha/ndufa8</t>
   </si>
   <si>
+    <t>mad2l1/cdca8/cbx3a/dynlt3/rcc2/spc24/cenpw/cbx1a/mis12/dscc1/cenph/suv39h1b/nsl1/cbx5/ska3/znf207b/bub3/cenpl/cenpk/meaf6/seh1l/nup133/ncapd3/sgo1/hnrnpub/ska1/knstrn/spc25/septin7a/anapc16/ska2/cenpp/bod1/septin15/zwilch/pane1/pafah1b1b/cbx1b</t>
+  </si>
+  <si>
+    <t>snrnp40/magoh/lsm7/snrpd2/snrpd3l/ppil3/snrpf/plrg1/dhx35/eftud2/snrpe/rbm22/wdr83/eif4a3/sf3b6/snrpg/rbmx/snrpb/snrpd1/isy1/ppil2/cdc40/ppil1/hnrnpub/bcas2</t>
+  </si>
+  <si>
+    <t>lsm7/snrpd3l/prpf19/snrpc/eftud2/smu1a/snrpe/rbm22/eif4a3/sf3b6/u2af2a/snrpg/yju2/snrpb/snrpd1/rbm8a/prpf31/sf3b3/bcas2/prpf40a/crnkl1/u2af2b/xab2/sf3b2</t>
+  </si>
+  <si>
+    <t>tmed4/tmed9/vma21/lman2lb/lman2/tex261/ier3ip1/tmed10/yif1a/tmed1b/vti1b/tmed7/ergic3/tmed2/sec13/sar1b/tmed1a</t>
+  </si>
+  <si>
+    <t>angptl7/col27a1b/zp2l2/hapln4/loxl3a/col11a1b/angptl2a/col11a1a/col8a2/ccn4b/fbn2b/col5a2a/frem2a/otol1a/cd180/mfap5/col5a3b/lama5/anxa2a/col1a1a/coch/lama1/loxa/thbs4b/ccn1/frem3/loxl5a/col17a1a/mfap4.4/col28a2a/ahsg2/angpt2a/col2a1a/matn3a/fras1/angptl1b/ccn6/rtn4rl2a/loxl5b/ucmaa/lamb4/loxl1/ntn2/fibcd1b/mfap4.10/tlr8b/ccn5/col11a2/ccn1l2/frem2b/timp4.3/angptl3/ucmab/fn1b/bcan/vtnb/fgg/fgb/col8a1a/vwf/mgp/fga/thbs3a/matn1/ahsg1/col10a1a/f2/anxa2b/zgc:113232/elnb/vtna/fgl2a</t>
+  </si>
+  <si>
+    <t>tnni1c/tnni4a/tmod4/tnnt2e/tnnt1/tnni2b.2/tnnt2d/tnni1d/tnnt3a/tnnt3b/tnni2a.1/lmod3/tnni2a.4</t>
+  </si>
+  <si>
     <t>cox6a1/cox7a2a/ndufa11/ndufab1b/cyc1/ndufs7/sdhdb/ndufab1a/uqcrfs1/ndufa4b/ndufb6/ndufs2/uqcrh/ndufb9/ndufc1/ndufa6/cox5aa/ndufa12/ndufs4/cox7b/sdhb/ndufb5/ndufa10/ndufb2/stmp1/sdhc/ndufs3/ndufv1/cox7a2l/ndufs6/ndufs5/ndufb8/ndufa3/ndufb10/uqcrq/cox5ab</t>
   </si>
   <si>
-    <t>pold1/rpa3/rpa2/rpa1/pola2/wdhd1/prim2/pold3/tonsl/mms22l/tipin</t>
-  </si>
-  <si>
-    <t>snrnp40/magoh/lsm7/snrpd2/snrpd3l/ppil3/snrpf/plrg1/dhx35/eftud2/snrpe/rbm22/wdr83/eif4a3/sf3b6/snrpg/rbmx/snrpb/snrpd1/isy1/ppil2/cdc40/ppil1/hnrnpub/bcas2</t>
-  </si>
-  <si>
-    <t>mad2l1/cdca8/cbx3a/dynlt3/rcc2/spc24/cenpw/cbx1a/mis12/dscc1/cenph/suv39h1b/nsl1/cbx5/ska3/znf207b/bub3/cenpl/cenpk/meaf6/seh1l/nup133/ncapd3/sgo1/hnrnpub/ska1/knstrn/spc25/septin7a/anapc16/ska2/cenpp/bod1/septin15/zwilch/pane1/pafah1b1b/cbx1b</t>
-  </si>
-  <si>
-    <t>lsm7/snrpd3l/prpf19/snrpc/eftud2/smu1a/snrpe/rbm22/eif4a3/sf3b6/u2af2a/snrpg/yju2/snrpb/snrpd1/rbm8a/prpf31/sf3b3/bcas2/prpf40a/crnkl1/u2af2b/xab2/sf3b2</t>
-  </si>
-  <si>
     <t>hbbe2/hbba2/hbaa1/si:ch211-5k11.8</t>
   </si>
   <si>
+    <t>zgc:112965/mhc1zba/folr/itga3b/illr4/ccr6a/il21r.1/mhc1zea/il13ra1/scara5/il13ra2/mhc1lfa/il6st/zgc:194252/cxcr3.2/zgc:172120/mhc1uba/cd79a/ada/il12rb2/cxcr4b/zgc:153759/si:dkey-15j16.3/cd4-1/cd40lg/selp/cmklr1/cxcr3.1/si:dkey-9i23.4/ebi3/il2rga/csf3r/si:dkey-9i23.5/il2rb/tnfrsf18/asgrl1/zgc:153911/zgc:174863/sele/mpl/mhc1lda/illr3/itgav/tfr1a/dicp3.3/ghrb/ccr9a/itga2b/cd40/ackr4b/si:ch211-196f2.6/mhc1zca/illr1/epor/zgc:174904/lgals17</t>
+  </si>
+  <si>
+    <t>zmp:0000001138/b2ml/zgc:123107/mhc2dgb/b2m/si:busm1-266f07.1</t>
+  </si>
+  <si>
+    <t>nip7/wdr12/rrs1/ebna1bp2/mrto4/eif6/wdr74/mak16/pes/noc2l/rpf1</t>
+  </si>
+  <si>
+    <t>eppk1/twf1b/zgc:103755/pls1/krt96/fhl3b/dbnlb/inab/krt8/myh9a/tppp2/myhz2/ndel1a/myo9aa/ttll1/cfap206/nexn/mxc/lmnb2/nefma/col11a1b/krt98/dnm1a/spega/tuba1b/wipf2b/col5a2a/ldb3b/wasla/stau2/ckap5/dnm3a/disc1/otol1a/ppl/klc1a/tubb2/diaph3/pdlim4/actn3b/mfap5/casq1a/synm/kif1b/dnm2a/zgc:65894/ndel1b/atp2a1/appl2/mxb/reep3a/prph/krt1-c5/pstpip1b/zgc:65851/pstpip1a/tnni1c/dcdc2b/tnni4a/cavin4a/bfsp2/tmod4/evpla/smyd1a/mapre2/cenpe/tnnt2e/krt93/inaa/neflb/mid1ip1l/myo9ab/tnnt1/pkp2/gfap/pleca/tnni2b.2/actn3a/wasb/tnnt2d/bag3/tpm1/klc3/mapre3a/tpma/tppp3/tnni1d/myh11a/tnnt3a/csrp1b/zgc:136930/ryr1b/myhz1.2/myom2a/pkd2/myl9a/tnnt3b/dctn1a/nrap/mxe/casq1b/nefmb/tnni2a.1/lmod3/mxa/tnni2a.4/vim/wipf1a/fhl5/zgc:165653/si:dkey-183i3.5/tubb4bl/ngs/myhz1.1/myoz2a/fhl2b/krt15/tubb1/krt17/tcap</t>
+  </si>
+  <si>
+    <t>eppk1/twf1b/zgc:103755/pls1/krt96/fhl3b/dbnlb/inab/krt8/myh9a/tppp2/myhz2/ndel1a/myo9aa/ttll1/cfap206/nexn/mxc/lmnb2/nefma/col11a1b/krt98/dnm1a/spega/tuba1b/wipf2b/col5a2a/ldb3b/wasla/stau2/ckap5/dnm3a/disc1/ppl/klc1a/tubb2/diaph3/pdlim4/actn3b/mfap5/casq1a/synm/kif1b/dnm2a/zgc:65894/ndel1b/atp2a1/appl2/mxb/reep3a/prph/krt1-c5/pstpip1b/zgc:65851/pstpip1a/tnni1c/dcdc2b/tnni4a/cavin4a/bfsp2/tmod4/evpla/smyd1a/mapre2/cenpe/tnnt2e/krt93/inaa/neflb/mid1ip1l/myo9ab/tnnt1/pkp2/gfap/pleca/tnni2b.2/actn3a/wasb/tnnt2d/bag3/tpm1/klc3/mapre3a/tpma/tppp3/tnni1d/myh11a/tnnt3a/csrp1b/zgc:136930/ryr1b/myhz1.2/myom2a/pkd2/myl9a/tnnt3b/dctn1a/nrap/mxe/casq1b/nefmb/tnni2a.1/lmod3/mxa/tnni2a.4/vim/wipf1a/fhl5/zgc:165653/si:dkey-183i3.5/tubb4bl/ngs/myhz1.1/myoz2a/fhl2b/krt15/tubb1/krt17/tcap</t>
+  </si>
+  <si>
     <t>polr2h/polr2g/taf10/taf12/polr2c/polr2l/gtf2a2/polr2eb/cdk7/polr2i/gtf2h4/taf7/gtf2h5/gtf2e2/polr2b/polr2d/gtf2h2/ctr9/ccnh/cdc73/mnat1/gtf2h3/gtf2f2a/polr2k/taf5</t>
   </si>
   <si>
-    <t>tmed4/tmed9/vma21/lman2lb/lman2/tex261/ier3ip1/tmed10/yif1a/tmed1b/vti1b/tmed7/ergic3/tmed2/sec13/sar1b/tmed1a</t>
-  </si>
-  <si>
-    <t>zgc:112965/mhc1zba/folr/itga3b/illr4/ccr6a/il21r.1/mhc1zea/il13ra1/scara5/il13ra2/mhc1lfa/il6st/zgc:194252/cxcr3.2/zgc:172120/mhc1uba/cd79a/ada/il12rb2/cxcr4b/zgc:153759/si:dkey-15j16.3/cd4-1/cd40lg/selp/cmklr1/cxcr3.1/si:dkey-9i23.4/ebi3/il2rga/csf3r/si:dkey-9i23.5/il2rb/tnfrsf18/asgrl1/zgc:153911/zgc:174863/sele/mpl/mhc1lda/illr3/itgav/tfr1a/dicp3.3/ghrb/ccr9a/itga2b/cd40/ackr4b/si:ch211-196f2.6/mhc1zca/illr1/epor/zgc:174904/lgals17</t>
-  </si>
-  <si>
-    <t>zmp:0000001138/b2ml/zgc:123107/mhc2dgb/b2m/si:busm1-266f07.1</t>
-  </si>
-  <si>
-    <t>eppk1/twf1b/zgc:103755/pls1/krt96/fhl3b/dbnlb/inab/krt8/myh9a/tppp2/myhz2/ndel1a/myo9aa/ttll1/cfap206/nexn/mxc/lmnb2/nefma/col11a1b/krt98/dnm1a/spega/tuba1b/wipf2b/col5a2a/ldb3b/wasla/stau2/ckap5/dnm3a/disc1/ppl/klc1a/tubb2/diaph3/pdlim4/actn3b/mfap5/casq1a/synm/kif1b/dnm2a/zgc:65894/ndel1b/atp2a1/appl2/mxb/reep3a/prph/krt1-c5/pstpip1b/zgc:65851/pstpip1a/tnni1c/dcdc2b/tnni4a/cavin4a/bfsp2/tmod4/evpla/smyd1a/mapre2/cenpe/tnnt2e/krt93/inaa/neflb/mid1ip1l/myo9ab/tnnt1/pkp2/gfap/pleca/tnni2b.2/actn3a/wasb/tnnt2d/bag3/tpm1/klc3/mapre3a/tpma/tppp3/tnni1d/myh11a/tnnt3a/csrp1b/zgc:136930/ryr1b/myhz1.2/myom2a/pkd2/myl9a/tnnt3b/dctn1a/nrap/mxe/casq1b/nefmb/tnni2a.1/lmod3/mxa/tnni2a.4/vim/wipf1a/fhl5/zgc:165653/si:dkey-183i3.5/tubb4bl/ngs/myhz1.1/myoz2a/fhl2b/krt15/tubb1/krt17/tcap</t>
-  </si>
-  <si>
-    <t>angptl7/col27a1b/zp2l2/hapln4/loxl3a/col11a1b/angptl2a/col11a1a/col8a2/ccn4b/fbn2b/col5a2a/frem2a/otol1a/cd180/mfap5/col5a3b/lama5/anxa2a/col1a1a/coch/lama1/loxa/thbs4b/ccn1/frem3/loxl5a/col17a1a/mfap4.4/col28a2a/ahsg2/angpt2a/col2a1a/matn3a/fras1/angptl1b/ccn6/rtn4rl2a/loxl5b/ucmaa/lamb4/loxl1/ntn2/fibcd1b/mfap4.10/tlr8b/ccn5/col11a2/ccn1l2/frem2b/timp4.3/angptl3/ucmab/fn1b/bcan/vtnb/fgg/fgb/col8a1a/vwf/mgp/fga/thbs3a/matn1/ahsg1/col10a1a/f2/anxa2b/zgc:113232/elnb/vtna/fgl2a</t>
-  </si>
-  <si>
-    <t>eppk1/twf1b/zgc:103755/pls1/krt96/fhl3b/dbnlb/inab/krt8/myh9a/tppp2/myhz2/ndel1a/myo9aa/ttll1/cfap206/nexn/mxc/lmnb2/nefma/col11a1b/krt98/dnm1a/spega/tuba1b/wipf2b/col5a2a/ldb3b/wasla/stau2/ckap5/dnm3a/disc1/otol1a/ppl/klc1a/tubb2/diaph3/pdlim4/actn3b/mfap5/casq1a/synm/kif1b/dnm2a/zgc:65894/ndel1b/atp2a1/appl2/mxb/reep3a/prph/krt1-c5/pstpip1b/zgc:65851/pstpip1a/tnni1c/dcdc2b/tnni4a/cavin4a/bfsp2/tmod4/evpla/smyd1a/mapre2/cenpe/tnnt2e/krt93/inaa/neflb/mid1ip1l/myo9ab/tnnt1/pkp2/gfap/pleca/tnni2b.2/actn3a/wasb/tnnt2d/bag3/tpm1/klc3/mapre3a/tpma/tppp3/tnni1d/myh11a/tnnt3a/csrp1b/zgc:136930/ryr1b/myhz1.2/myom2a/pkd2/myl9a/tnnt3b/dctn1a/nrap/mxe/casq1b/nefmb/tnni2a.1/lmod3/mxa/tnni2a.4/vim/wipf1a/fhl5/zgc:165653/si:dkey-183i3.5/tubb4bl/ngs/myhz1.1/myoz2a/fhl2b/krt15/tubb1/krt17/tcap</t>
-  </si>
-  <si>
     <t>cox6a1/cox7a2a/ndufa11/cox6b1/ndufab1b/cyc1/ndufs7/sdhdb/ndufab1a/uqcrfs1/ndufa4b/ndufb6/ndufs2/uqcrh/ndufb9/ndufc1/ndufa6/cox5aa/ndufa12/ndufs4/cox7b/sdhb/ndufb5/ndufa10/ndufb2/stmp1/sdhc/ndufb3/ndufs3/ndufv1/cox7a2l/ndufs6/ndufs5/cox6b2/ndufb8/ndufa3/ndufb10</t>
   </si>
   <si>
-    <t>tnni1c/tnni4a/tmod4/tnnt2e/tnnt1/tnni2b.2/tnnt2d/tnni1d/tnnt3a/tnnt3b/tnni2a.1/lmod3/tnni2a.4</t>
+    <t>spega/ldb3b/pdlim4/actn3b/casq1a/atp2a1/tnni1c/tnni4a/cavin4a/tmod4/smyd1a/tnnt2e/tnnt1/tnni2b.2/actn3a/tnnt2d/bag3/tnni1d/tnnt3a/csrp1b/ryr1b/myom2a/pkd2/tnnt3b/nrap/casq1b/tnni2a.1/lmod3/tnni2a.4/fhl5/zgc:165653/myoz2a/fhl2b/tcap</t>
+  </si>
+  <si>
+    <t>pold1/rpa3/rpa2/rpa1/pola2/prim2/pold3</t>
+  </si>
+  <si>
+    <t>snu13b/wdr36/imp4/rrp9/nop56/nol6/noc4l/nop58/utp11/nol10/fbl/dcaf13/wdr3/snu13a/tbl3/pwp2h/utp4/imp3/utp6/ngdn/pdcd11/fcf1/wdr46/emg1</t>
   </si>
   <si>
     <t>mrps6/dap3/mrps34/mrps22/mrps2/mrps18a/mrps10/mrps24/mrps17/mrps14/mrps16/mrps31/mrps5/mrps26/mrps18c</t>
   </si>
   <si>
-    <t>pold1/rpa3/rpa2/rpa1/pola2/prim2/pold3</t>
-  </si>
-  <si>
     <t>polr2h/polr2g/polr2c/polr2l/polr2eb/polr2i/polr2b/polr2d</t>
   </si>
   <si>
-    <t>spega/ldb3b/pdlim4/actn3b/casq1a/atp2a1/tnni1c/tnni4a/cavin4a/tmod4/smyd1a/tnnt2e/tnnt1/tnni2b.2/actn3a/tnnt2d/bag3/tnni1d/tnnt3a/csrp1b/ryr1b/myom2a/pkd2/tnnt3b/nrap/casq1b/tnni2a.1/lmod3/tnni2a.4/fhl5/zgc:165653/myoz2a/fhl2b/tcap</t>
+    <t>tnni1c/tnni4a/tnnt2e/tnnt1/tnni2b.2/tnnt2d/tnni1d/tnnt3a/tnnt3b/tnni2a.1/tnni2a.4</t>
   </si>
   <si>
     <t>spega/ldb3b/pdlim4/actn3b/casq1a/atp2a1/tnni1c/tnni4a/cavin4a/tmod4/smyd1a/tnnt2e/tnnt1/tnni2b.2/actn3a/tnnt2d/bag3/tnni1d/tnnt3a/csrp1b/ryr1b/myom2a/pkd2/myl9a/tnnt3b/nrap/casq1b/tnni2a.1/lmod3/tnni2a.4/fhl5/zgc:165653/myoz2a/fhl2b/tcap</t>
@@ -1094,151 +1130,151 @@
     <t>snrpd2/snrpd3l/sf3b5/snrpe/phf5a/sf3b6/snrpg/snrpb/snrpd1/sf3b3/sf3b2/snrpa1/rbmx2</t>
   </si>
   <si>
+    <t>kcnab2b/rab3ab/avp/slc8a4b/cntn2/cdk5r2a/gsk3bb/insra/cdk5r1a/gper1/scn8ab/shtn1/cplx2l/nrp1b/si:dkey-221l4.10/si:dkey-33c12.3/exoc4/bsg/oprm1/tenm3/syt13/fxr1/ngfb/igf1ra/dlg2/dpysl3/nptna/myo9aa/gap43/nexn/scn1lab/nefma/l1cama/zgc:113337/sncga/stmn2a/spg11/cplx4b/slc8a2a/slc18a3a/th/cdk5r1b/apc/synm/kif1b/mycbp2/calb2b/prph/il1rapl1b/slc8a1b/rab11a/slc18a2/gpm6aa/sncb/ccka/kcna2b/lrrk2/penka/cplx2/neflb/fez2b/myo9ab/sptan1/l1camb/syt1a/syt5b/cplx3b/syt11b/stmn2b/sc:d189/scn4ab/maco1b/insrb/kcnc1b/bace1/calb2a/si:ch211-81a5.8/dctn1a/syt4/nefmb/syt5a/kcnc4/vim</t>
+  </si>
+  <si>
+    <t>spcs2/sptssa/emc6/mmgt1/emc7b/rpn2/emc8/ddost/vcp/prkcsh/pigs/emc3/ostc/emc10/sec11a/rpn1/magt1/derl2/sec61a1l/get3/derl1/tmem258/sec61b/pigm/spcs3/tusc3/ormdl1/emc4/pigc/piga/ost4/dad1/emc2/pigu/pigk</t>
+  </si>
+  <si>
+    <t>polr2h/polr1e/polr1c/polr1b/polr2l/polr1h/polr2eb/polr1f/polr1d</t>
+  </si>
+  <si>
+    <t>wdr12/wdr36/imp4/nol6/noc4l/wdr3/pes/srfbp1/noc2l/tbl3/pwp2h/utp4/imp3/bms1/utp6</t>
+  </si>
+  <si>
+    <t>spcs2/psmd11b/psmb7/capns1a/psmc6/psmd8/psma3/psmd7/psmb3/psmc4/taf10/psmd4b/psma5/taf12/psmc2/psmd1/psmd13/psmd14/psma6a/psma4/psmd3/psmb1/psma1/psmb5/psme3/pigs/psmd10/psmc1a/psmc5/sec11a/psma2b/psmd6/psma6b/usp14/psma2a/eny2/psmc1b/psmd11a/nr5a1b</t>
+  </si>
+  <si>
+    <t>cks1b/cks2/ccndx/cdk2/ccne1/ccna2/ccnb2/ccnb1/ccna1/ccne2/ccnd2a/ccnt2b/ccnf/ccnb3/ccng1</t>
+  </si>
+  <si>
     <t>ranbp1/rae1/eif5a2/nup43/nup107/nup50/nxt2/nup58/ndc1/nup93/eny2/nup37/nutf2l/nutf2/nup62l/sec13/seh1l/nup133/nup35</t>
   </si>
   <si>
-    <t>spcs2/psmd11b/psmb7/capns1a/psmc6/psmd8/psma3/psmd7/psmb3/psmc4/taf10/psmd4b/psma5/taf12/psmc2/psmd1/psmd13/psmd14/psma6a/psma4/psmd3/psmb1/psma1/psmb5/psme3/pigs/psmd10/psmc1a/psmc5/sec11a/psma2b/psmd6/psma6b/usp14/psma2a/eny2/psmc1b/psmd11a/nr5a1b</t>
-  </si>
-  <si>
-    <t>nip7/wdr12/rrs1/ebna1bp2/mrto4/eif6/wdr74/mak16/pes/noc2l/rpf1</t>
-  </si>
-  <si>
-    <t>polr2h/polr1e/polr1c/polr1b/polr2l/polr1h/polr2eb/polr1f/polr1d</t>
-  </si>
-  <si>
-    <t>snu13b/wdr36/imp4/rrp9/nop56/nol6/noc4l/nop58/utp11/nol10/fbl/dcaf13/wdr3/snu13a/tbl3/pwp2h/utp4/imp3/utp6/ngdn/pdcd11/fcf1/wdr46/emg1</t>
-  </si>
-  <si>
-    <t>tnni1c/tnni4a/tnnt2e/tnnt1/tnni2b.2/tnnt2d/tnni1d/tnnt3a/tnnt3b/tnni2a.1/tnni2a.4</t>
-  </si>
-  <si>
-    <t>cks1b/cks2/ccndx/cdk2/ccne1/ccna2/ccnb2/ccnb1/ccna1/ccne2/ccnd2a/ccnt2b/ccnf/ccnb3/ccng1</t>
-  </si>
-  <si>
-    <t>wdr12/wdr36/imp4/nol6/noc4l/wdr3/pes/srfbp1/noc2l/tbl3/pwp2h/utp4/imp3/bms1/utp6</t>
-  </si>
-  <si>
-    <t>kcnab2b/rab3ab/avp/slc8a4b/cntn2/cdk5r2a/gsk3bb/insra/cdk5r1a/gper1/scn8ab/shtn1/cplx2l/nrp1b/si:dkey-221l4.10/si:dkey-33c12.3/exoc4/bsg/oprm1/tenm3/syt13/fxr1/ngfb/igf1ra/dlg2/dpysl3/nptna/myo9aa/gap43/nexn/scn1lab/nefma/l1cama/zgc:113337/sncga/stmn2a/spg11/cplx4b/slc8a2a/slc18a3a/th/cdk5r1b/apc/synm/kif1b/mycbp2/calb2b/prph/il1rapl1b/slc8a1b/rab11a/slc18a2/gpm6aa/sncb/ccka/kcna2b/lrrk2/penka/cplx2/neflb/fez2b/myo9ab/sptan1/l1camb/syt1a/syt5b/cplx3b/syt11b/stmn2b/sc:d189/scn4ab/maco1b/insrb/kcnc1b/bace1/calb2a/si:ch211-81a5.8/dctn1a/syt4/nefmb/syt5a/kcnc4/vim</t>
+    <t>atp5mc3a/atp5mc1/atp5f1e/atp5f1c/atp5po/atp5meb/atp5mc3b/atp5f1d/si:ch211-140m22.7/atp5pb/atp5l/atp5pd/atp5f1b</t>
+  </si>
+  <si>
+    <t>guca1g/pde6ha/pdcb/pde6gb/opn1sw2/opn1sw1/opn1lw2/opn1mw1/rho</t>
+  </si>
+  <si>
+    <t>snu13b/snrpd2/eftud2/lsm8/prpf4/txnl4a/snrpe/lsm6/snrpb/snu13a/prpf31</t>
+  </si>
+  <si>
+    <t>dynlt3/dynll1/dynlrb1/dynlt1b/dynlt5/dynlt2b/dync1li2/dync2i2/dync1i1/dync1li1</t>
+  </si>
+  <si>
+    <t>traf3/esyt3/mhc1zja/gnai3/gng3/si:ch211-202h22.9/zgc:112965/mhc1zba/folr/itga3b/illr4/ccr6a/ptpn4a/src/il21r.1/mhc1zea/il13ra1/scara5/gnb5a/ptk2ab/il13ra2/syk/mhc1lfa/gna11a/il6st/zgc:194252/cxcr3.2/zgc:172120/mhc1uba/cd79a/litaf/ada/il12rb2/cxcr4b/zgc:153759/si:dkey-15j16.3/gnat2/lck/cd4-1/cd40lg/ptk6b/selp/gng10/cmklr1/cxcr3.1/si:dkey-9i23.4/ebi3/il2rga/gngt1/sla1a/csf3r/si:dkey-9i23.5/mtss1la/il2rb/tnfrsf18/gngt2a/asgrl1/lyn/gnao1b/zgc:153911/zgc:174863/sele/mpl/gnb3b/mhc1lda/illr3/itgav/gnat1/zap70/tfr1a/dicp3.3/ghrb/ccr9a/itga2b/cd40/ackr4b/gnb3a/si:ch211-196f2.6/mhc1zca/illr1/epor/zgc:174904/lgals17/gngt2b</t>
+  </si>
+  <si>
+    <t>pold1/pola2/prim2/mad2l2/pole3/pold3/pole4</t>
   </si>
   <si>
     <t>cox6a1/ndufa11/cox6b1/ndufab1b/cyc1/ndufs7/sdhdb/ndufab1a/uqcrfs1/ndufa4b/ndufb6/ndufs2/uqcrh/ndufb9/ndufc1/ndufa6/cox5aa/ndufa12/ndufs4/sdhb/ndufb5/ndufa10/ndufb2/sdhc/ndufs3/ndufv1/ndufs6/ndufs5/cox6b2/ndufb8/ndufa3/ndufb10</t>
   </si>
   <si>
-    <t>atp5mc3a/atp5mc1/atp5f1e/atp5f1c/atp5po/atp5meb/atp5mc3b/atp5f1d/si:ch211-140m22.7/atp5pb/atp5l/atp5pd/atp5f1b</t>
-  </si>
-  <si>
-    <t>spcs2/sptssa/emc6/mmgt1/emc7b/rpn2/emc8/ddost/vcp/prkcsh/pigs/emc3/ostc/emc10/sec11a/rpn1/magt1/derl2/sec61a1l/get3/derl1/tmem258/sec61b/pigm/spcs3/tusc3/ormdl1/emc4/pigc/piga/ost4/dad1/emc2/pigu/pigk</t>
-  </si>
-  <si>
-    <t>guca1g/pde6ha/pdcb/pde6gb/opn1sw2/opn1sw1/opn1lw2/opn1mw1/rho</t>
-  </si>
-  <si>
-    <t>snu13b/snrpd2/eftud2/lsm8/prpf4/txnl4a/snrpe/lsm6/snrpb/snu13a/prpf31</t>
-  </si>
-  <si>
-    <t>pold1/pola2/prim2/mad2l2/pole3/pold3/pole4</t>
-  </si>
-  <si>
-    <t>dynlt3/dynll1/dynlrb1/dynlt1b/dynlt5/dynlt2b/dync1li2/dync2i2/dync1i1/dync1li1</t>
-  </si>
-  <si>
     <t>atp5mc3a/atp5mc1/atp6ap1b/atp5f1e/atp5f1c/atp5po/atp5meb/atp6v1g1/atp6v0b/atp5mc3b/atp6v1aa/atp6v1c1b/atp5f1d/atp6v1h/atp6v1ba/si:ch211-140m22.7/atp5pb/atp6v1c1a/atp5l</t>
   </si>
   <si>
     <t>actc1a/acta1b/acta1a/dctn5/dctn2/actr10/actc2/dctn3</t>
   </si>
   <si>
+    <t>eppk1/krt96/inab/krt8/lmnb2/nefma/krt98/ppl/synm/prph/krt1-c5/zgc:65851/bfsp2/evpla/krt93/inaa/neflb/pkp2/gfap/pleca/zgc:136930/nefmb/vim/si:dkey-183i3.5/ngs/krt15/krt17</t>
+  </si>
+  <si>
     <t>snrpd2/snrpd3l/snrpf/snrpc/snrpe/snrpb2/snrpg/snrpa/snrpb/snrpd1</t>
   </si>
   <si>
-    <t>traf3/esyt3/mhc1zja/gnai3/gng3/si:ch211-202h22.9/zgc:112965/mhc1zba/folr/itga3b/illr4/ccr6a/ptpn4a/src/il21r.1/mhc1zea/il13ra1/scara5/gnb5a/ptk2ab/il13ra2/syk/mhc1lfa/gna11a/il6st/zgc:194252/cxcr3.2/zgc:172120/mhc1uba/cd79a/litaf/ada/il12rb2/cxcr4b/zgc:153759/si:dkey-15j16.3/gnat2/lck/cd4-1/cd40lg/ptk6b/selp/gng10/cmklr1/cxcr3.1/si:dkey-9i23.4/ebi3/il2rga/gngt1/sla1a/csf3r/si:dkey-9i23.5/mtss1la/il2rb/tnfrsf18/gngt2a/asgrl1/lyn/gnao1b/zgc:153911/zgc:174863/sele/mpl/gnb3b/mhc1lda/illr3/itgav/gnat1/zap70/tfr1a/dicp3.3/ghrb/ccr9a/itga2b/cd40/ackr4b/gnb3a/si:ch211-196f2.6/mhc1zca/illr1/epor/zgc:174904/lgals17/gngt2b</t>
-  </si>
-  <si>
-    <t>eppk1/krt96/inab/krt8/lmnb2/nefma/krt98/ppl/synm/prph/krt1-c5/zgc:65851/bfsp2/evpla/krt93/inaa/neflb/pkp2/gfap/pleca/zgc:136930/nefmb/vim/si:dkey-183i3.5/ngs/krt15/krt17</t>
-  </si>
-  <si>
     <t>eppk1/krt96/inab/krt8/lmnb2/nefma/krt98/disc1/ppl/synm/prph/krt1-c5/zgc:65851/bfsp2/evpla/krt93/inaa/neflb/pkp2/gfap/pleca/zgc:136930/nefmb/vim/si:dkey-183i3.5/ngs/krt15/krt17</t>
   </si>
   <si>
+    <t>psmb9a/psmb12/psmb13a/psmb8a</t>
+  </si>
+  <si>
+    <t>apoc2/saa/apoea/cetp/lpl/apoa1a/apoc1/apoa1b/apobb.1/zgc:162608</t>
+  </si>
+  <si>
+    <t>psmd11b/psmc6/psmd8/psmd7/psmc4/psmd4b/psmc2/psmd1/psmd13/psmd14/psmd3/psme3/psmc1a/psmc5/psmd6/psmd11a</t>
+  </si>
+  <si>
     <t>tomm40l/tomm6/tomm40/tomm20a/mtx2/samm50/mtx1b/tomm5/tomm7</t>
   </si>
   <si>
+    <t>atp5mc3a/atp5mc1/atp5po/atp5meb/atp5mc3b/si:ch211-140m22.7/atp5pb/atp5l</t>
+  </si>
+  <si>
+    <t>arpc3/arpc5b/arpc4/arpc2/arpc1a/actr2a/arpc5a</t>
+  </si>
+  <si>
     <t>polr2h/polr1c/polr2l/polr2eb/polr3f/polr3h/polr3c/polr3gla/polr3k/polr3g/polr1d/polr3e/polr2k</t>
   </si>
   <si>
-    <t>psmd11b/psmc6/psmd8/psmd7/psmc4/psmd4b/psmc2/psmd1/psmd13/psmd14/psmd3/psme3/psmc1a/psmc5/psmd6/psmd11a</t>
+    <t>snrpd2/snrpd3l/txnl4a/snrpe/snrpg/snrpb/snrpd1</t>
+  </si>
+  <si>
+    <t>rpa3/rpa2/traip/hpf1/vcp/samhd1/actr2a/smarcad1a</t>
   </si>
   <si>
     <t>tgfbr3/illr4/ccr6a/nlgn2b/il21r.1/mhc1zea/itgb1a/il13ra1/scara5/itgb1b.1/nlgn2a/il13ra2/fzd6/ngfrb/zgc:113337/kiss1rb/mhc1lfa/il6st/zgc:194252/cxcr3.2/zgc:172120/mhc1uba/cd79a/ada/il12rb2/cxcr4b/zgc:153759/si:dkey-15j16.3/itgb4/cd4-1/cd40lg/selp/cmklr1/cxcr3.1/si:dkey-9i23.4/ebi3/il2rga/ltb4r/csf3r/si:dkey-9i23.5/cd83/il2rb/tnfrsf18/asgrl1/zgc:153911/zgc:174863/sele/sc:d189/mpl/mhc1lda/illr3/itgav/tfr1a/bace1/dicp3.3/ghrb/ccr9a/itga2b/cd40/ackr4b/si:ch211-196f2.6/mhc1zca/illr1/epor/zgc:174904/ambp/lgals17/cd74a/cd74b</t>
   </si>
   <si>
-    <t>rpa3/rpa2/traip/hpf1/vcp/samhd1/actr2a/smarcad1a</t>
-  </si>
-  <si>
-    <t>snrpd2/snrpd3l/txnl4a/snrpe/snrpg/snrpb/snrpd1</t>
-  </si>
-  <si>
-    <t>atp5mc3a/atp5mc1/atp5po/atp5meb/atp5mc3b/si:ch211-140m22.7/atp5pb/atp5l</t>
-  </si>
-  <si>
-    <t>apoc2/saa/apoea/cetp/lpl/apoa1a/apoc1/apoa1b/apobb.1/zgc:162608</t>
-  </si>
-  <si>
-    <t>psmb9a/psmb12/psmb13a/psmb8a</t>
+    <t>sncga/cplx4b/slc18a3a/calb2b/il1rapl1b/slc18a2/sncb/kcna2b/penka/cplx2/cplx3b/calb2a/si:ch211-81a5.8</t>
+  </si>
+  <si>
+    <t>rpgrip1l/arl13a/gnat2/sagb/guca1g/pde6ha/pdcb/pde6gb/opn1sw2/opn1sw1/opn1lw2/opn1mw1/rho</t>
+  </si>
+  <si>
+    <t>rbbp4/rbb4l/snrpe/wdr5/pagr1/clns1a/wdr82/mettl14/rnf2/tex10/trmt61b/men1/trmt61a/ruvbl2/wdr4/dpy30/ezh2/prpf31/n6amt1/senp3b/aebp2/suz12a/ruvbl1/cxxc1a/wtap/eed/rbbp5</t>
+  </si>
+  <si>
+    <t>rag2/rpp40/rpp21/tsen2/pop5/rpp25l/rpp25b/tarbp2/dgcr8/pop4/rag1</t>
+  </si>
+  <si>
+    <t>rps15a/rpl10/rpl29/rpl10a/rps10/rpl7/rps21/rps9/rpl27/rps27.2/rpl35a/rps28/rpl13a/rps27a/rpl7a/rps11/rpl17/rps7/rps3/rps8a/rpl30/rpl23/rps13/rpl13/rpl5b/rps19/rpl5a/rps26l/rpl23a/rps26/rpl6/rps14/zgc:194655/rpl21/rpl28/rpl12/rplp2l/rpl36a/rps3a/rpl14/rpl31/uba52/rpl11/rps12/rpl35/rpl24/rps25/rps8b/rpl26</t>
+  </si>
+  <si>
+    <t>kdelr3/kdelr2a/arcn1a/copz1/kdelr2b/cope/arcn1b/copb1/copa/copg2</t>
+  </si>
+  <si>
+    <t>cks1b/cks2/ccndx/cdk2/ccne1/ccna2/ccnb2/acvr1ba/ccnb1/ccna1/ccne2/ccnd2a/zgc:86598/cdk7/dbf4/gtf2h4/gtf2h5/gtf2h2/ccnt2b/strada/csnk2a2a/ccnh/phkg2/ccnf/ccnb3</t>
+  </si>
+  <si>
+    <t>cox17/timm10/agk/prelid1a/chchd4a/triap1/thop1/timm10b/uqcc2/timm13/sdhaf3/stmp1/timm8a/timm8b</t>
+  </si>
+  <si>
+    <t>p2rx3b/p2rx8/sephs1/ctdnep1a/itprip/unc50/nemp1/nup107/cptp/sumo1/lbr/noc4l/p2rx4b/tmem18/ndc1/nup93/terb1/sigmar1/cnep1r1</t>
+  </si>
+  <si>
+    <t>mad2l1/dynlt3/spc24/cenpw/mis12/cenph/nsl1/ska3/znf207b/bub3/meaf6/seh1l/nup133/ncapd3/sgo1/hnrnpub/ska1/knstrn/spc25/septin7a/anapc16/ska2/bod1/septin15/zwilch/pafah1b1b</t>
+  </si>
+  <si>
+    <t>rpp40/rpp21/tsen2/pop5/rpp25l/rpp25b/tarbp2/dgcr8/pop4</t>
   </si>
   <si>
     <t>atp5mc3a/atp5mc1/atp5po/atp5meb/atp6v0b/atp5mc3b/si:ch211-140m22.7/atp5pb/atp5l/atp6v0d1/atp5pd/atp6v0e1</t>
   </si>
   <si>
-    <t>rag2/rpp40/rpp21/tsen2/pop5/rpp25l/rpp25b/tarbp2/dgcr8/pop4/rag1</t>
-  </si>
-  <si>
-    <t>mad2l1/dynlt3/spc24/cenpw/mis12/cenph/nsl1/ska3/znf207b/bub3/meaf6/seh1l/nup133/ncapd3/sgo1/hnrnpub/ska1/knstrn/spc25/septin7a/anapc16/ska2/bod1/septin15/zwilch/pafah1b1b</t>
-  </si>
-  <si>
-    <t>arpc3/arpc5b/arpc4/arpc2/arpc1a/actr2a/arpc5a</t>
-  </si>
-  <si>
-    <t>sncga/cplx4b/slc18a3a/calb2b/il1rapl1b/slc18a2/sncb/kcna2b/penka/cplx2/cplx3b/calb2a/si:ch211-81a5.8</t>
-  </si>
-  <si>
-    <t>rpgrip1l/arl13a/gnat2/sagb/guca1g/pde6ha/pdcb/pde6gb/opn1sw2/opn1sw1/opn1lw2/opn1mw1/rho</t>
-  </si>
-  <si>
-    <t>rps15a/rpl10/rpl29/rpl10a/rps10/rpl7/rps21/rps9/rpl27/rps27.2/rpl35a/rps28/rpl13a/rps27a/rpl7a/rps11/rpl17/rps7/rps3/rps8a/rpl30/rpl23/rps13/rpl13/rpl5b/rps19/rpl5a/rps26l/rpl23a/rps26/rpl6/rps14/zgc:194655/rpl21/rpl28/rpl12/rplp2l/rpl36a/rps3a/rpl14/rpl31/uba52/rpl11/rps12/rpl35/rpl24/rps25/rps8b/rpl26</t>
-  </si>
-  <si>
-    <t>rbbp4/rbb4l/snrpe/wdr5/pagr1/clns1a/wdr82/mettl14/rnf2/tex10/trmt61b/men1/trmt61a/ruvbl2/wdr4/dpy30/ezh2/prpf31/n6amt1/senp3b/aebp2/suz12a/ruvbl1/cxxc1a/wtap/eed/rbbp5</t>
-  </si>
-  <si>
-    <t>p2rx3b/p2rx8/sephs1/ctdnep1a/itprip/unc50/nemp1/nup107/cptp/sumo1/lbr/noc4l/p2rx4b/tmem18/ndc1/nup93/terb1/sigmar1/cnep1r1</t>
-  </si>
-  <si>
     <t>kdelr3/ap1m2/kdelr2a/vma21/arcn1a/ap1g2/ap2m1a/copz1/kdelr2b/cope/vti1b/sec13/arcn1b/sar1b/reep6/ap2s1/copb1</t>
   </si>
   <si>
+    <t>fhl3b/nexn/spega/ldb3b/pdlim4/actn3b/casq1a/actn3a/bag3/csrp1b/ryr1b/nrap/casq1b/fhl5/zgc:165653/myoz2a/fhl2b/tcap</t>
+  </si>
+  <si>
+    <t>nexn/spega/ldb3b/pdlim4/actn3b/casq1a/atp2a1/actn3a/bag3/csrp1b/ryr1b/nrap/casq1b/fhl5/zgc:165653/myoz2a/fhl2b/tcap</t>
+  </si>
+  <si>
+    <t>cdk5r2a/cdk5r1a/shtn1/cplx2l/exoc4/fxr1/dpysl3/myo9aa/gap43/l1cama/sncga/stmn2a/cplx4b/slc18a3a/cdk5r1b/apc/calb2b/il1rapl1b/slc18a2/gpm6aa/sncb/kcna2b/penka/cplx2/myo9ab/l1camb/cplx3b/stmn2b/calb2a/si:ch211-81a5.8</t>
+  </si>
+  <si>
+    <t>exosc5/exosc2/exosc9/exosc4/exosc6/supv3l1/exosc8/exosc7</t>
+  </si>
+  <si>
+    <t>snrpd3l/snrpe/ddx20/gemin8/snrpg/snrpd1</t>
+  </si>
+  <si>
+    <t>mad2l1/dynlt3/spc24/cenpw/mis12/rad51/cenph/nsl1/ska3/znf207b/bub3/tmpoa/meaf6/seh1l/nup133/rad9b/ncapd3/sgo1/mei4/hnrnpub/ska1/knstrn/spc25/septin7a/anapc16/ska2/bod1/septin15/zwilch/pafah1b1b</t>
+  </si>
+  <si>
     <t>sf3b4/lsm7/snrpd3l/phf5a/sf3b6/snrpg/rbmx/snrpd1/snrnp48</t>
-  </si>
-  <si>
-    <t>cox17/timm10/agk/prelid1a/chchd4a/triap1/thop1/timm10b/uqcc2/timm13/sdhaf3/stmp1/timm8a/timm8b</t>
-  </si>
-  <si>
-    <t>fhl3b/nexn/spega/ldb3b/pdlim4/actn3b/casq1a/actn3a/bag3/csrp1b/ryr1b/nrap/casq1b/fhl5/zgc:165653/myoz2a/fhl2b/tcap</t>
-  </si>
-  <si>
-    <t>mad2l1/dynlt3/spc24/cenpw/mis12/rad51/cenph/nsl1/ska3/znf207b/bub3/tmpoa/meaf6/seh1l/nup133/rad9b/ncapd3/sgo1/mei4/hnrnpub/ska1/knstrn/spc25/septin7a/anapc16/ska2/bod1/septin15/zwilch/pafah1b1b</t>
-  </si>
-  <si>
-    <t>actc1a/acta1b/cdca8/dnai7/dynlt3/haus2/zgc:56231/dynll1/acta1a/aurkb/dynlrb1/dnal4b/kif22/haus1/kif5c/dnal1/haus6/dctn5/dynlt1b/aurka/haus4/dctn2/kif6/actr10/dynlt5/dynlt2b/dnai4/dync1li2/actc2/kifap3b/haus3/dctn3/kif23/pafah1b1b</t>
-  </si>
-  <si>
-    <t>cdk5r2a/cdk5r1a/shtn1/cplx2l/exoc4/fxr1/dpysl3/myo9aa/gap43/l1cama/sncga/stmn2a/cplx4b/slc18a3a/cdk5r1b/apc/calb2b/il1rapl1b/slc18a2/gpm6aa/sncb/kcna2b/penka/cplx2/myo9ab/l1camb/cplx3b/stmn2b/calb2a/si:ch211-81a5.8</t>
-  </si>
-  <si>
-    <t>c6/c8b/c9/c7b/c8a</t>
-  </si>
-  <si>
-    <t>kdelr3/kdelr2a/arcn1a/copz1/kdelr2b/cope/arcn1b/copb1/copa/copg2</t>
   </si>
 </sst>
 </file>
@@ -1333,34 +1369,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>60.0</v>
+        <v>37.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.567012439940207</v>
+        <v>-0.8309498276682477</v>
       </c>
       <c r="F2" t="n">
-        <v>2.6913292030121436</v>
+        <v>-2.296465258166203</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6843767032139374E-10</v>
+        <v>1.0E-10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9286113251799583E-8</v>
+        <v>2.305E-8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3785293544724592E-8</v>
+        <v>1.6473684210526318E-8</v>
       </c>
       <c r="J2" t="n">
-        <v>3959.0</v>
+        <v>1012.0</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -1371,34 +1407,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.567012439940207</v>
+        <v>-0.7263554249920519</v>
       </c>
       <c r="F3" t="n">
-        <v>2.6913292030121436</v>
+        <v>-2.131547403640943</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6843767032139374E-10</v>
+        <v>1.0E-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9286113251799583E-8</v>
+        <v>2.305E-8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3785293544724592E-8</v>
+        <v>1.6473684210526318E-8</v>
       </c>
       <c r="J3" t="n">
-        <v>3959.0</v>
+        <v>1012.0</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -1409,34 +1445,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>37.0</v>
+        <v>60.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8309498276682477</v>
+        <v>0.567012439940207</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.2849798753258455</v>
+        <v>2.693048603857937</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0E-10</v>
+        <v>3.761543097061893E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9286113251799583E-8</v>
+        <v>4.335178419363832E-8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3785293544724592E-8</v>
+        <v>3.0983236562641386E-8</v>
       </c>
       <c r="J4" t="n">
-        <v>1012.0</v>
+        <v>3959.0</v>
       </c>
       <c r="K4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L4" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -1447,34 +1483,34 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>63.0</v>
+        <v>60.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7263554249920519</v>
+        <v>0.567012439940207</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.1017567981796947</v>
+        <v>2.693048603857937</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0E-10</v>
+        <v>3.761543097061893E-10</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9286113251799583E-8</v>
+        <v>4.335178419363832E-8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3785293544724592E-8</v>
+        <v>3.0983236562641386E-8</v>
       </c>
       <c r="J5" t="n">
-        <v>1012.0</v>
+        <v>3959.0</v>
       </c>
       <c r="K5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L5" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -1485,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" t="n">
         <v>32.0</v>
@@ -1494,25 +1530,25 @@
         <v>0.712880915581888</v>
       </c>
       <c r="F6" t="n">
-        <v>3.087518919358864</v>
+        <v>3.1757826627832153</v>
       </c>
       <c r="G6" t="n">
-        <v>1.153870940449286E-9</v>
+        <v>9.967588047013125E-10</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0569457814515459E-7</v>
+        <v>9.190116179346101E-8</v>
       </c>
       <c r="I6" t="n">
-        <v>7.554818157467957E-8</v>
+        <v>6.56811591308444E-8</v>
       </c>
       <c r="J6" t="n">
         <v>3284.0</v>
       </c>
       <c r="K6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -1523,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
         <v>77.0</v>
@@ -1532,25 +1568,25 @@
         <v>0.48290270440619887</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5592213076693913</v>
+        <v>2.429184151387664</v>
       </c>
       <c r="G7" t="n">
-        <v>6.287840802365866E-9</v>
+        <v>5.262603250992031E-9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.799718479139277E-7</v>
+        <v>4.0434334978455437E-7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.430734192168043E-7</v>
+        <v>2.8898154694043965E-7</v>
       </c>
       <c r="J7" t="n">
         <v>3977.0</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
@@ -1561,34 +1597,34 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0</v>
+        <v>75.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6695959136191892</v>
+        <v>0.47352939908619585</v>
       </c>
       <c r="F8" t="n">
-        <v>2.9000496526648156</v>
+        <v>2.439375513066927</v>
       </c>
       <c r="G8" t="n">
-        <v>3.351954864028739E-8</v>
+        <v>1.8286633289512992E-8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>9.36681994051721E-7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>6.694404935225225E-7</v>
       </c>
       <c r="J8" t="n">
-        <v>3476.0</v>
+        <v>4197.0</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
@@ -1599,34 +1635,34 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D9" t="n">
-        <v>32.0</v>
+        <v>75.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6695959136191892</v>
+        <v>0.47352939908619585</v>
       </c>
       <c r="F9" t="n">
-        <v>2.9000496526648156</v>
+        <v>2.439375513066927</v>
       </c>
       <c r="G9" t="n">
-        <v>3.351954864028739E-8</v>
+        <v>1.8286633289512992E-8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>9.36681994051721E-7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>6.694404935225225E-7</v>
       </c>
       <c r="J9" t="n">
-        <v>3476.0</v>
+        <v>4197.0</v>
       </c>
       <c r="K9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
@@ -1637,34 +1673,34 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0</v>
+        <v>75.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6695959136191892</v>
+        <v>0.47352939908619585</v>
       </c>
       <c r="F10" t="n">
-        <v>2.9000496526648156</v>
+        <v>2.439375513066927</v>
       </c>
       <c r="G10" t="n">
-        <v>3.351954864028739E-8</v>
+        <v>1.8286633289512992E-8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>9.36681994051721E-7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>6.694404935225225E-7</v>
       </c>
       <c r="J10" t="n">
-        <v>3476.0</v>
+        <v>4197.0</v>
       </c>
       <c r="K10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11">
@@ -1675,34 +1711,34 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D11" t="n">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.48798357164038725</v>
+        <v>-0.6579988347086182</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4675560743327742</v>
+        <v>-1.9357139674287323</v>
       </c>
       <c r="G11" t="n">
-        <v>3.981083829384966E-8</v>
+        <v>2.7502847757628443E-8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>1.2678812816266713E-6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>9.061464576987058E-7</v>
       </c>
       <c r="J11" t="n">
-        <v>4605.0</v>
+        <v>1012.0</v>
       </c>
       <c r="K11" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
@@ -1713,34 +1749,34 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D12" t="n">
-        <v>75.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.47352939908619585</v>
+        <v>0.6695959136191892</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4376751947545667</v>
+        <v>2.9829541611540593</v>
       </c>
       <c r="G12" t="n">
-        <v>3.788183953455238E-8</v>
+        <v>3.680660828300798E-8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>1.3052189552666676E-6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>9.328314487920242E-7</v>
       </c>
       <c r="J12" t="n">
-        <v>4197.0</v>
+        <v>3476.0</v>
       </c>
       <c r="K12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L12" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13">
@@ -1751,34 +1787,34 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>75.0</v>
+        <v>32.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.47352939908619585</v>
+        <v>0.6695959136191892</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4376751947545667</v>
+        <v>2.9829541611540593</v>
       </c>
       <c r="G13" t="n">
-        <v>3.788183953455238E-8</v>
+        <v>3.680660828300798E-8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>1.3052189552666676E-6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>9.328314487920242E-7</v>
       </c>
       <c r="J13" t="n">
-        <v>4197.0</v>
+        <v>3476.0</v>
       </c>
       <c r="K13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L13" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14">
@@ -1789,34 +1825,34 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D14" t="n">
-        <v>75.0</v>
+        <v>32.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.47352939908619585</v>
+        <v>0.6695959136191892</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4376751947545667</v>
+        <v>2.9829541611540593</v>
       </c>
       <c r="G14" t="n">
-        <v>3.788183953455238E-8</v>
+        <v>3.680660828300798E-8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.402566456814088E-6</v>
+        <v>1.3052189552666676E-6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0025239440799387E-6</v>
+        <v>9.328314487920242E-7</v>
       </c>
       <c r="J14" t="n">
-        <v>4197.0</v>
+        <v>3476.0</v>
       </c>
       <c r="K14" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L14" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
@@ -1827,34 +1863,34 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D15" t="n">
-        <v>55.0</v>
+        <v>17.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5276411751226389</v>
+        <v>0.8066170686282329</v>
       </c>
       <c r="F15" t="n">
-        <v>2.538419993388749</v>
+        <v>2.892702988890441</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7143957505817693E-8</v>
+        <v>5.112492745776691E-8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.4636949040934686E-6</v>
+        <v>1.6341322098721678E-6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0462172263228424E-6</v>
+        <v>1.1679036001598095E-6</v>
       </c>
       <c r="J15" t="n">
-        <v>3312.0</v>
+        <v>2817.0</v>
       </c>
       <c r="K15" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L15" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16">
@@ -1865,34 +1901,34 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D16" t="n">
-        <v>72.0</v>
+        <v>55.0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6579988347086182</v>
+        <v>0.5276411751226389</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.9276025029078074</v>
+        <v>2.5610509811713658</v>
       </c>
       <c r="G16" t="n">
-        <v>4.793760602926207E-8</v>
+        <v>5.317133003922455E-8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.4636949040934686E-6</v>
+        <v>1.6341322098721678E-6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0462172263228424E-6</v>
+        <v>1.1679036001598095E-6</v>
       </c>
       <c r="J16" t="n">
-        <v>1012.0</v>
+        <v>3312.0</v>
       </c>
       <c r="K16" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L16" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17">
@@ -1903,34 +1939,34 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D17" t="n">
-        <v>17.0</v>
+        <v>63.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8066170686282329</v>
+        <v>0.48798357164038725</v>
       </c>
       <c r="F17" t="n">
-        <v>2.9657018181224633</v>
+        <v>2.424234726417737</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0852482897813486E-7</v>
+        <v>9.001640595382113E-8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.96902322949911E-6</v>
+        <v>2.5935976965444712E-6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.266527750802627E-6</v>
+        <v>1.853627306812238E-6</v>
       </c>
       <c r="J17" t="n">
-        <v>2817.0</v>
+        <v>4605.0</v>
       </c>
       <c r="K17" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L17" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1977,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D18" t="n">
         <v>20.0</v>
@@ -1950,25 +1986,25 @@
         <v>0.7550176807295702</v>
       </c>
       <c r="F18" t="n">
-        <v>2.9269555411591437</v>
+        <v>2.880322332538425</v>
       </c>
       <c r="G18" t="n">
-        <v>5.248639464913462E-7</v>
+        <v>5.043612634038839E-7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4140452205472737E-5</v>
+        <v>1.3677090731128853E-5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.0107287142960288E-5</v>
+        <v>9.774927272161963E-6</v>
       </c>
       <c r="J18" t="n">
         <v>2175.0</v>
       </c>
       <c r="K18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L18" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19">
@@ -1979,7 +2015,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D19" t="n">
         <v>46.0</v>
@@ -1988,25 +2024,25 @@
         <v>0.5387514163810259</v>
       </c>
       <c r="F19" t="n">
-        <v>2.4957696353167798</v>
+        <v>2.4686838451814315</v>
       </c>
       <c r="G19" t="n">
-        <v>6.528555696520468E-7</v>
+        <v>5.529526485901054E-7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.6611547272257633E-5</v>
+        <v>1.4161731722224367E-5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.1873572056244828E-5</v>
+        <v>1.0121297018052807E-5</v>
       </c>
       <c r="J19" t="n">
         <v>3312.0</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L19" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20">
@@ -2017,7 +2053,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D20" t="n">
         <v>47.0</v>
@@ -2026,25 +2062,25 @@
         <v>0.5299843688225183</v>
       </c>
       <c r="F20" t="n">
-        <v>2.448840071168772</v>
+        <v>2.4351238154093617</v>
       </c>
       <c r="G20" t="n">
-        <v>7.27468732078686E-7</v>
+        <v>6.188712884527769E-7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.7535825225896746E-5</v>
+        <v>1.5015771788248954E-5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.2534225799250488E-5</v>
+        <v>1.073167386624483E-5</v>
       </c>
       <c r="J20" t="n">
         <v>4774.0</v>
       </c>
       <c r="K20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L20" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21">
@@ -2055,7 +2091,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D21" t="n">
         <v>12.0</v>
@@ -2064,25 +2100,25 @@
         <v>-0.8855069801689598</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.9936092224282054</v>
+        <v>-2.0153601694144765</v>
       </c>
       <c r="G21" t="n">
-        <v>3.0182441008069874E-6</v>
+        <v>1.8406522284448388E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>6.911778990848001E-5</v>
+        <v>4.242703386565353E-5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.940389028163016E-5</v>
+        <v>3.0322323552801822E-5</v>
       </c>
       <c r="J21" t="n">
         <v>8.0</v>
       </c>
       <c r="K21" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22">
@@ -2093,34 +2129,34 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D22" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6574964937272196</v>
+        <v>0.6970074009946701</v>
       </c>
       <c r="F22" t="n">
-        <v>2.63190691753425</v>
+        <v>2.671756671084899</v>
       </c>
       <c r="G22" t="n">
-        <v>5.80721826039955E-6</v>
+        <v>2.0705471496672025E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.2665266491728542E-4</v>
+        <v>4.545343980936097E-5</v>
       </c>
       <c r="I22" t="n">
-        <v>9.052856536261957E-5</v>
+        <v>3.2485276082497966E-5</v>
       </c>
       <c r="J22" t="n">
-        <v>3306.0</v>
+        <v>3312.0</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L22" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23">
@@ -2131,34 +2167,34 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D23" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6970074009946701</v>
+        <v>0.6574964937272196</v>
       </c>
       <c r="F23" t="n">
-        <v>2.7053415950186173</v>
+        <v>2.6384274251906534</v>
       </c>
       <c r="G23" t="n">
-        <v>6.104172287878976E-6</v>
+        <v>3.893879080502343E-6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.270777685385714E-4</v>
+        <v>8.159446618689E-5</v>
       </c>
       <c r="I23" t="n">
-        <v>9.08324201689168E-5</v>
+        <v>5.831503120560926E-5</v>
       </c>
       <c r="J23" t="n">
-        <v>3312.0</v>
+        <v>3306.0</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
@@ -2169,7 +2205,7 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D24" t="n">
         <v>114.0</v>
@@ -2178,25 +2214,25 @@
         <v>-0.5450527007186379</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.6379410424690894</v>
+        <v>-1.6506672023724227</v>
       </c>
       <c r="G24" t="n">
-        <v>8.570505350494857E-6</v>
+        <v>1.0253038828697124E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.706648456750715E-4</v>
+        <v>2.0550656087084236E-4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.2198751322672313E-4</v>
+        <v>1.468741946628009E-4</v>
       </c>
       <c r="J24" t="n">
         <v>3412.0</v>
       </c>
       <c r="K24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25">
@@ -2207,34 +2243,34 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D25" t="n">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5320848891445851</v>
+        <v>0.7005994675281881</v>
       </c>
       <c r="F25" t="n">
-        <v>2.3480086551301187</v>
+        <v>2.6133795069463703</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2269895027748639E-5</v>
+        <v>1.7588633202921616E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2478447690835507E-4</v>
+        <v>3.241609850322498E-4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6067104646862426E-4</v>
+        <v>2.3167573539238317E-4</v>
       </c>
       <c r="J25" t="n">
-        <v>3959.0</v>
+        <v>3284.0</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26">
@@ -2245,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D26" t="n">
         <v>37.0</v>
@@ -2254,25 +2290,25 @@
         <v>0.5320848891445851</v>
       </c>
       <c r="F26" t="n">
-        <v>2.3480086551301187</v>
+        <v>2.45085588121167</v>
       </c>
       <c r="G26" t="n">
-        <v>1.2269895027748639E-5</v>
+        <v>1.8985567453081877E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2478447690835507E-4</v>
+        <v>3.241609850322498E-4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6067104646862426E-4</v>
+        <v>2.3167573539238317E-4</v>
       </c>
       <c r="J26" t="n">
         <v>3959.0</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27">
@@ -2283,34 +2319,34 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D27" t="n">
-        <v>70.0</v>
+        <v>37.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3968296837230871</v>
+        <v>0.5320848891445851</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0099377975421375</v>
+        <v>2.45085588121167</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5091132819594343E-5</v>
+        <v>1.8985567453081877E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6583610889900806E-4</v>
+        <v>3.241609850322498E-4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9001385857869796E-4</v>
+        <v>2.3167573539238317E-4</v>
       </c>
       <c r="J27" t="n">
-        <v>4110.0</v>
+        <v>3959.0</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28">
@@ -2321,34 +2357,34 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D28" t="n">
-        <v>56.0</v>
+        <v>70.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4308166181346853</v>
+        <v>0.3968296837230871</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0212551722633885</v>
+        <v>2.0176607895332768</v>
       </c>
       <c r="G28" t="n">
-        <v>1.8207846681718995E-5</v>
+        <v>1.7742991124690942E-5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.088590288973074E-4</v>
+        <v>3.241609850322498E-4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2076570440602756E-4</v>
+        <v>2.3167573539238317E-4</v>
       </c>
       <c r="J28" t="n">
-        <v>3788.0</v>
+        <v>4110.0</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29">
@@ -2359,34 +2395,34 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D29" t="n">
-        <v>18.0</v>
+        <v>77.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7005994675281881</v>
+        <v>0.371018865491312</v>
       </c>
       <c r="F29" t="n">
-        <v>2.6044472518536486</v>
+        <v>1.8663659153153362</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9769657246116692E-5</v>
+        <v>2.1656685525046807E-5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.122242420248774E-4</v>
+        <v>3.565618581088064E-4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2317108542803233E-4</v>
+        <v>2.548324274187839E-4</v>
       </c>
       <c r="J29" t="n">
-        <v>3284.0</v>
+        <v>4408.0</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30">
@@ -2397,7 +2433,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D30" t="n">
         <v>47.0</v>
@@ -2406,25 +2442,25 @@
         <v>0.4745609944793435</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1927514241158534</v>
+        <v>2.1804695525048468</v>
       </c>
       <c r="G30" t="n">
-        <v>1.958212128534953E-5</v>
+        <v>2.50186779262622E-5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.122242420248774E-4</v>
+        <v>3.8445368413356245E-4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.2317108542803233E-4</v>
+        <v>2.7476653301473924E-4</v>
       </c>
       <c r="J30" t="n">
         <v>3726.0</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31">
@@ -2435,34 +2471,34 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D31" t="n">
-        <v>77.0</v>
+        <v>46.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.371018865491312</v>
+        <v>0.47223643108968066</v>
       </c>
       <c r="F31" t="n">
-        <v>1.9662747328786774</v>
+        <v>2.163896767767805</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1576452874160378E-5</v>
+        <v>2.4499687212858905E-5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.294005138788485E-4</v>
+        <v>3.8445368413356245E-4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3544831031101327E-4</v>
+        <v>2.7476653301473924E-4</v>
       </c>
       <c r="J31" t="n">
-        <v>4408.0</v>
+        <v>4676.0</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32">
@@ -2473,34 +2509,34 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D32" t="n">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.47223643108968066</v>
+        <v>0.507187873876491</v>
       </c>
       <c r="F32" t="n">
-        <v>2.187638509279469</v>
+        <v>2.374116565511734</v>
       </c>
       <c r="G32" t="n">
-        <v>2.894931782745103E-5</v>
+        <v>2.8073781578694817E-5</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2770282467653455E-4</v>
+        <v>4.1748430025091325E-4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.0571266024914326E-4</v>
+        <v>2.9837329827271577E-4</v>
       </c>
       <c r="J32" t="n">
-        <v>4676.0</v>
+        <v>3076.0</v>
       </c>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33">
@@ -2511,34 +2547,34 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
-        <v>10.0</v>
+        <v>214.0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.8640146019167091</v>
+        <v>-0.4763319049404607</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.8894965506342214</v>
+        <v>-1.4792438925996354</v>
       </c>
       <c r="G33" t="n">
-        <v>3.798947353253339E-5</v>
+        <v>3.676267990534556E-5</v>
       </c>
       <c r="H33" t="n">
-        <v>5.437243399343841E-4</v>
+        <v>5.135634980716454E-4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.886423114676935E-4</v>
+        <v>3.6704047242019656E-4</v>
       </c>
       <c r="J33" t="n">
-        <v>8.0</v>
+        <v>3412.0</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
@@ -2549,34 +2585,34 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D34" t="n">
-        <v>52.0</v>
+        <v>214.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.42094937337842664</v>
+        <v>-0.4763319049404607</v>
       </c>
       <c r="F34" t="n">
-        <v>2.0120696500591984</v>
+        <v>-1.4792438925996354</v>
       </c>
       <c r="G34" t="n">
-        <v>4.0989031647527545E-5</v>
+        <v>3.676267990534556E-5</v>
       </c>
       <c r="H34" t="n">
-        <v>5.688780755929581E-4</v>
+        <v>5.135634980716454E-4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.0662165366446784E-4</v>
+        <v>3.6704047242019656E-4</v>
       </c>
       <c r="J34" t="n">
-        <v>4617.0</v>
+        <v>3412.0</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
@@ -2587,34 +2623,34 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D35" t="n">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.507187873876491</v>
+        <v>-0.7068701632139696</v>
       </c>
       <c r="F35" t="n">
-        <v>2.2396781047757863</v>
+        <v>-1.863262127884363</v>
       </c>
       <c r="G35" t="n">
-        <v>4.541036100225206E-5</v>
+        <v>4.083197301234562E-5</v>
       </c>
       <c r="H35" t="n">
-        <v>5.942270096866126E-4</v>
+        <v>5.378154159626094E-4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2474051944963576E-4</v>
+        <v>3.8437315948463695E-4</v>
       </c>
       <c r="J35" t="n">
-        <v>3076.0</v>
+        <v>2347.0</v>
       </c>
       <c r="K35" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
@@ -2625,34 +2661,34 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D36" t="n">
-        <v>124.0</v>
+        <v>26.0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5176340967784091</v>
+        <v>-0.7068701632139696</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.5621495619569294</v>
+        <v>-1.863262127884363</v>
       </c>
       <c r="G36" t="n">
-        <v>4.531728198216094E-5</v>
+        <v>4.083197301234562E-5</v>
       </c>
       <c r="H36" t="n">
-        <v>5.942270096866126E-4</v>
+        <v>5.378154159626094E-4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2474051944963576E-4</v>
+        <v>3.8437315948463695E-4</v>
       </c>
       <c r="J36" t="n">
-        <v>4163.0</v>
+        <v>2347.0</v>
       </c>
       <c r="K36" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37">
@@ -2663,34 +2699,34 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D37" t="n">
-        <v>10.0</v>
+        <v>56.0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.861086275963714</v>
+        <v>0.4308166181346853</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.8830926521641695</v>
+        <v>2.113519576610742</v>
       </c>
       <c r="G37" t="n">
-        <v>4.705095308504547E-5</v>
+        <v>5.058630427049246E-5</v>
       </c>
       <c r="H37" t="n">
-        <v>5.985926809153006E-4</v>
+        <v>6.477857296860285E-4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.2786100612424383E-4</v>
+        <v>4.629682232942732E-4</v>
       </c>
       <c r="J37" t="n">
-        <v>561.0</v>
+        <v>3788.0</v>
       </c>
       <c r="K37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
@@ -2701,34 +2737,34 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D38" t="n">
-        <v>376.0</v>
+        <v>10.0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.43191675983578287</v>
+        <v>-0.8640146019167091</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.3588688639518924</v>
+        <v>-1.8844846760738079</v>
       </c>
       <c r="G38" t="n">
-        <v>4.9110240578850626E-5</v>
+        <v>5.9913271079772216E-5</v>
       </c>
       <c r="H38" t="n">
-        <v>6.07905140138205E-4</v>
+        <v>7.464869721020268E-4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.345173490760326E-4</v>
+        <v>5.335093555609874E-4</v>
       </c>
       <c r="J38" t="n">
-        <v>3817.0</v>
+        <v>8.0</v>
       </c>
       <c r="K38" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39">
@@ -2739,34 +2775,34 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D39" t="n">
-        <v>214.0</v>
+        <v>124.0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.4763319049404607</v>
+        <v>-0.5176340967784091</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.4676122567455228</v>
+        <v>-1.5758280681726458</v>
       </c>
       <c r="G39" t="n">
-        <v>5.2477764456709414E-5</v>
+        <v>6.725454466482495E-5</v>
       </c>
       <c r="H39" t="n">
-        <v>6.16277336440331E-4</v>
+        <v>8.159038181706395E-4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.405016125785865E-4</v>
+        <v>5.831211213321388E-4</v>
       </c>
       <c r="J39" t="n">
-        <v>3412.0</v>
+        <v>4163.0</v>
       </c>
       <c r="K39" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
@@ -2777,34 +2813,34 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D40" t="n">
-        <v>214.0</v>
+        <v>10.0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4763319049404607</v>
+        <v>-0.861086275963714</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.4676122567455228</v>
+        <v>-1.8780977638934737</v>
       </c>
       <c r="G40" t="n">
-        <v>5.2477764456709414E-5</v>
+        <v>7.282856608827974E-5</v>
       </c>
       <c r="H40" t="n">
-        <v>6.16277336440331E-4</v>
+        <v>8.60870999146076E-4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.405016125785865E-4</v>
+        <v>6.152588714070597E-4</v>
       </c>
       <c r="J40" t="n">
-        <v>3412.0</v>
+        <v>561.0</v>
       </c>
       <c r="K40" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41">
@@ -2815,34 +2851,34 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D41" t="n">
-        <v>378.0</v>
+        <v>17.0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4324535407719543</v>
+        <v>0.6795904822200106</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.3609801582932584</v>
+        <v>2.4371582199252666</v>
       </c>
       <c r="G41" t="n">
-        <v>6.712016995020992E-5</v>
+        <v>8.044725355177946E-5</v>
       </c>
       <c r="H41" t="n">
-        <v>7.685259459299036E-4</v>
+        <v>8.853035117110552E-4</v>
       </c>
       <c r="I41" t="n">
-        <v>5.493256014346128E-4</v>
+        <v>6.327206283035969E-4</v>
       </c>
       <c r="J41" t="n">
-        <v>3817.0</v>
+        <v>3116.0</v>
       </c>
       <c r="K41" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
@@ -2853,34 +2889,34 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D42" t="n">
-        <v>63.0</v>
+        <v>378.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3814127331180467</v>
+        <v>-0.4324535407719543</v>
       </c>
       <c r="F42" t="n">
-        <v>1.9286659656790133</v>
+        <v>-1.364130794702894</v>
       </c>
       <c r="G42" t="n">
-        <v>8.158178042957828E-5</v>
+        <v>8.065671907128919E-5</v>
       </c>
       <c r="H42" t="n">
-        <v>9.113281813840695E-4</v>
+        <v>8.853035117110552E-4</v>
       </c>
       <c r="I42" t="n">
-        <v>6.513975279486224E-4</v>
+        <v>6.327206283035969E-4</v>
       </c>
       <c r="J42" t="n">
-        <v>3476.0</v>
+        <v>3817.0</v>
       </c>
       <c r="K42" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43">
@@ -2891,34 +2927,34 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D43" t="n">
-        <v>26.0</v>
+        <v>376.0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.7068701632139696</v>
+        <v>-0.43191675983578287</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.8528894789487969</v>
+        <v>-1.3627151736260352</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0981691438038019E-4</v>
+        <v>7.840062437240122E-5</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0011696778322375378</v>
+        <v>8.853035117110552E-4</v>
       </c>
       <c r="I43" t="n">
-        <v>8.360602294320254E-4</v>
+        <v>6.327206283035969E-4</v>
       </c>
       <c r="J43" t="n">
-        <v>2347.0</v>
+        <v>3817.0</v>
       </c>
       <c r="K43" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44">
@@ -2929,34 +2965,34 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D44" t="n">
-        <v>26.0</v>
+        <v>52.0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.7068701632139696</v>
+        <v>0.42094937337842664</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.8528894789487969</v>
+        <v>2.008732532272878</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0981691438038019E-4</v>
+        <v>1.1136579439698419E-4</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0011696778322375378</v>
+        <v>0.0011939449120234816</v>
       </c>
       <c r="I44" t="n">
-        <v>8.360602294320254E-4</v>
+        <v>8.533046180234041E-4</v>
       </c>
       <c r="J44" t="n">
-        <v>2347.0</v>
+        <v>4617.0</v>
       </c>
       <c r="K44" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
@@ -2967,34 +3003,34 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D45" t="n">
-        <v>20.0</v>
+        <v>63.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6408076294803859</v>
+        <v>0.3814127331180467</v>
       </c>
       <c r="F45" t="n">
-        <v>2.4842006880054415</v>
+        <v>1.8948055763731024</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1666470847044867E-4</v>
+        <v>1.1404524193808409E-4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0011873874773214552</v>
+        <v>0.0011948831030331082</v>
       </c>
       <c r="I45" t="n">
-        <v>8.487186978785855E-4</v>
+        <v>8.539751370004863E-4</v>
       </c>
       <c r="J45" t="n">
-        <v>5521.0</v>
+        <v>3476.0</v>
       </c>
       <c r="K45" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46">
@@ -3005,34 +3041,34 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D46" t="n">
-        <v>20.0</v>
+        <v>99.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6408076294803859</v>
+        <v>-0.5347190842422619</v>
       </c>
       <c r="F46" t="n">
-        <v>2.4842006880054415</v>
+        <v>-1.6086413827379042</v>
       </c>
       <c r="G46" t="n">
-        <v>1.1666470847044867E-4</v>
+        <v>1.4013768374011217E-4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0011873874773214552</v>
+        <v>0.0014356327156487044</v>
       </c>
       <c r="I46" t="n">
-        <v>8.487186978785855E-4</v>
+        <v>0.001026037310190763</v>
       </c>
       <c r="J46" t="n">
-        <v>5521.0</v>
+        <v>3114.0</v>
       </c>
       <c r="K46" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
@@ -3043,7 +3079,7 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D47" t="n">
         <v>11.0</v>
@@ -3052,25 +3088,25 @@
         <v>0.7600437295948113</v>
       </c>
       <c r="F47" t="n">
-        <v>2.2779802286154536</v>
+        <v>2.276537225703235</v>
       </c>
       <c r="G47" t="n">
-        <v>1.3229102204409573E-4</v>
+        <v>1.477787963222481E-4</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0012891337892807625</v>
+        <v>0.0014494898958416248</v>
       </c>
       <c r="I47" t="n">
-        <v>9.21444744808819E-4</v>
+        <v>0.0010359409462231501</v>
       </c>
       <c r="J47" t="n">
         <v>2263.0</v>
       </c>
       <c r="K47" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
@@ -3081,7 +3117,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D48" t="n">
         <v>11.0</v>
@@ -3090,25 +3126,25 @@
         <v>0.7600437295948113</v>
       </c>
       <c r="F48" t="n">
-        <v>2.2779802286154536</v>
+        <v>2.276537225703235</v>
       </c>
       <c r="G48" t="n">
-        <v>1.3229102204409573E-4</v>
+        <v>1.477787963222481E-4</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0012891337892807625</v>
+        <v>0.0014494898958416248</v>
       </c>
       <c r="I48" t="n">
-        <v>9.21444744808819E-4</v>
+        <v>0.0010359409462231501</v>
       </c>
       <c r="J48" t="n">
         <v>2263.0</v>
       </c>
       <c r="K48" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L48" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49">
@@ -3119,34 +3155,34 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D49" t="n">
-        <v>11.0</v>
+        <v>33.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7575815812080496</v>
+        <v>0.49859192951554915</v>
       </c>
       <c r="F49" t="n">
-        <v>2.2706007514530664</v>
+        <v>2.2429570892174158</v>
       </c>
       <c r="G49" t="n">
-        <v>1.41259812501027E-4</v>
+        <v>1.5237288554271978E-4</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0013478540442806324</v>
+        <v>0.0014634145882332045</v>
       </c>
       <c r="I49" t="n">
-        <v>9.6341670368025E-4</v>
+        <v>0.0010458928327822653</v>
       </c>
       <c r="J49" t="n">
-        <v>2636.0</v>
+        <v>5011.0</v>
       </c>
       <c r="K49" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50">
@@ -3157,34 +3193,34 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D50" t="n">
-        <v>99.0</v>
+        <v>20.0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5347190842422619</v>
+        <v>0.6408076294803859</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.5988579898951356</v>
+        <v>2.4446215938543863</v>
       </c>
       <c r="G50" t="n">
-        <v>1.4469490796841314E-4</v>
+        <v>1.6924706370175345E-4</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001352454445908841</v>
+        <v>0.001472130120122799</v>
       </c>
       <c r="I50" t="n">
-        <v>9.667049705301071E-4</v>
+        <v>0.00105212176640812</v>
       </c>
       <c r="J50" t="n">
-        <v>3114.0</v>
+        <v>5521.0</v>
       </c>
       <c r="K50" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
@@ -3195,34 +3231,34 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D51" t="n">
-        <v>106.0</v>
+        <v>20.0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5250035066751664</v>
+        <v>0.6408076294803859</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.5732235563736998</v>
+        <v>2.4446215938543863</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5577517939337023E-4</v>
+        <v>1.6924706370175345E-4</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0014269006432432714</v>
+        <v>0.001472130120122799</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0010199174903439607</v>
+        <v>0.00105212176640812</v>
       </c>
       <c r="J51" t="n">
-        <v>3114.0</v>
+        <v>5521.0</v>
       </c>
       <c r="K51" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52">
@@ -3233,34 +3269,34 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D52" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6780103960401132</v>
+        <v>0.7575815812080496</v>
       </c>
       <c r="F52" t="n">
-        <v>2.4025633083977396</v>
+        <v>2.2691624231235776</v>
       </c>
       <c r="G52" t="n">
-        <v>1.652627968315564E-4</v>
+        <v>1.6375447131951895E-4</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0014281200179028836</v>
+        <v>0.001472130120122799</v>
       </c>
       <c r="I52" t="n">
-        <v>0.001020789072782801</v>
+        <v>0.00105212176640812</v>
       </c>
       <c r="J52" t="n">
-        <v>4774.0</v>
+        <v>2636.0</v>
       </c>
       <c r="K52" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L52" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53">
@@ -3271,34 +3307,34 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D53" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4805585984572117</v>
+        <v>-0.7256335119717751</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0965976196887914</v>
+        <v>-1.8322522306658788</v>
       </c>
       <c r="G53" t="n">
-        <v>1.6341750630385535E-4</v>
+        <v>1.6489259535073166E-4</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0014281200179028836</v>
+        <v>0.001472130120122799</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001020789072782801</v>
+        <v>0.00105212176640812</v>
       </c>
       <c r="J53" t="n">
-        <v>2871.0</v>
+        <v>2347.0</v>
       </c>
       <c r="K53" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54">
@@ -3309,34 +3345,34 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D54" t="n">
-        <v>109.0</v>
+        <v>106.0</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5181476052718743</v>
+        <v>-0.5250035066751664</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.5526933441808197</v>
+        <v>-1.5868611070501892</v>
       </c>
       <c r="G54" t="n">
-        <v>1.648713831521774E-4</v>
+        <v>1.603232801904582E-4</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0014281200179028836</v>
+        <v>0.001472130120122799</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001020789072782801</v>
+        <v>0.00105212176640812</v>
       </c>
       <c r="J54" t="n">
         <v>3114.0</v>
       </c>
       <c r="K54" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L54" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55">
@@ -3347,34 +3383,34 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D55" t="n">
-        <v>78.0</v>
+        <v>16.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3394947787095347</v>
+        <v>0.6780103960401132</v>
       </c>
       <c r="F55" t="n">
-        <v>1.777347487611922</v>
+        <v>2.3551706920399114</v>
       </c>
       <c r="G55" t="n">
-        <v>1.7558672920870797E-4</v>
+        <v>2.0747148140286156E-4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00148923559217756</v>
+        <v>0.00177119172086517</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0010644731536824205</v>
+        <v>0.00126585913604475</v>
       </c>
       <c r="J55" t="n">
-        <v>2212.0</v>
+        <v>4774.0</v>
       </c>
       <c r="K55" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L55" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56">
@@ -3385,34 +3421,34 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D56" t="n">
-        <v>17.0</v>
+        <v>167.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6795904822200106</v>
+        <v>-0.48028093876879957</v>
       </c>
       <c r="F56" t="n">
-        <v>2.4986611455249617</v>
+        <v>-1.481209450839235</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8670110706737078E-4</v>
+        <v>2.1198931756161564E-4</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0015547110370337422</v>
+        <v>0.0017768559162891781</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0011112735750804272</v>
+        <v>0.0012699072994600135</v>
       </c>
       <c r="J56" t="n">
-        <v>3116.0</v>
+        <v>5202.0</v>
       </c>
       <c r="K56" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L56" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
@@ -3423,34 +3459,34 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D57" t="n">
-        <v>13.0</v>
+        <v>68.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7238892129399692</v>
+        <v>0.3520946587173064</v>
       </c>
       <c r="F57" t="n">
-        <v>2.297780240618652</v>
+        <v>1.7600902725203245</v>
       </c>
       <c r="G57" t="n">
-        <v>1.934427996698572E-4</v>
+        <v>2.2591115837572508E-4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0015820857544427609</v>
+        <v>0.0018597329287715941</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0011308404266414584</v>
+        <v>0.0013291389581128188</v>
       </c>
       <c r="J57" t="n">
-        <v>3601.0</v>
+        <v>4043.0</v>
       </c>
       <c r="K57" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L57" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58">
@@ -3461,34 +3497,34 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" t="n">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.49859192951554915</v>
+        <v>0.7238892129399692</v>
       </c>
       <c r="F58" t="n">
-        <v>2.165116812514786</v>
+        <v>2.3488347244411987</v>
       </c>
       <c r="G58" t="n">
-        <v>2.216293203744069E-4</v>
+        <v>2.4638557897727515E-4</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0017800808781353525</v>
+        <v>0.001992697401903927</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0012723630271204197</v>
+        <v>0.0014241677972278326</v>
       </c>
       <c r="J58" t="n">
-        <v>5011.0</v>
+        <v>3601.0</v>
       </c>
       <c r="K58" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L58" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59">
@@ -3499,34 +3535,34 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7256335119717751</v>
+        <v>0.58084540473496</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.8404473246506292</v>
+        <v>2.278864176719179</v>
       </c>
       <c r="G59" t="n">
-        <v>2.254250893708525E-4</v>
+        <v>2.575298353730211E-4</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0017800808781353525</v>
+        <v>0.002046918174257978</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0012723630271204197</v>
+        <v>0.00146291902852551</v>
       </c>
       <c r="J59" t="n">
-        <v>2347.0</v>
+        <v>3901.0</v>
       </c>
       <c r="K59" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L59" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60">
@@ -3537,34 +3573,34 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" t="n">
-        <v>27.0</v>
+        <v>78.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5452460032855745</v>
+        <v>0.3394947787095347</v>
       </c>
       <c r="F60" t="n">
-        <v>2.2823926577248805</v>
+        <v>1.761627157174893</v>
       </c>
       <c r="G60" t="n">
-        <v>3.0456933052244413E-4</v>
+        <v>2.6254447840841214E-4</v>
       </c>
       <c r="H60" t="n">
-        <v>0.002309473635293026</v>
+        <v>0.002051406856716576</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0016507614354772033</v>
+        <v>0.0014661270605144158</v>
       </c>
       <c r="J60" t="n">
-        <v>3654.0</v>
+        <v>2212.0</v>
       </c>
       <c r="K60" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L60" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61">
@@ -3575,34 +3611,34 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.58084540473496</v>
+        <v>0.5452460032855745</v>
       </c>
       <c r="F61" t="n">
-        <v>2.278626981676636</v>
+        <v>2.256931668911102</v>
       </c>
       <c r="G61" t="n">
-        <v>3.023155871870268E-4</v>
+        <v>2.8101686103927713E-4</v>
       </c>
       <c r="H61" t="n">
-        <v>0.002309473635293026</v>
+        <v>0.002158881961778948</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0016507614354772033</v>
+        <v>0.001542938815017264</v>
       </c>
       <c r="J61" t="n">
-        <v>3901.0</v>
+        <v>3654.0</v>
       </c>
       <c r="K61" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L61" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62">
@@ -3613,34 +3649,34 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" t="n">
-        <v>167.0</v>
+        <v>109.0</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.48028093876879957</v>
+        <v>-0.5181476052718743</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.46693983661853</v>
+        <v>-1.5670565279534525</v>
       </c>
       <c r="G62" t="n">
-        <v>3.075936501154467E-4</v>
+        <v>2.8566550904233367E-4</v>
       </c>
       <c r="H62" t="n">
-        <v>0.002309473635293026</v>
+        <v>0.002158881961778948</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0016507614354772033</v>
+        <v>0.001542938815017264</v>
       </c>
       <c r="J62" t="n">
-        <v>5202.0</v>
+        <v>3114.0</v>
       </c>
       <c r="K62" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L62" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63">
@@ -3651,34 +3687,34 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" t="n">
-        <v>56.0</v>
+        <v>36.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.36559930573795</v>
+        <v>0.4805585984572117</v>
       </c>
       <c r="F63" t="n">
-        <v>1.7152761908263088</v>
+        <v>2.1767973595501715</v>
       </c>
       <c r="G63" t="n">
-        <v>4.1512723560724514E-4</v>
+        <v>3.198027027926297E-4</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0030665850630341657</v>
+        <v>0.0023778878385064886</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0021919281880110907</v>
+        <v>0.0016994608824124464</v>
       </c>
       <c r="J63" t="n">
-        <v>3476.0</v>
+        <v>2871.0</v>
       </c>
       <c r="K63" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L63" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64">
@@ -3689,7 +3725,7 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" t="n">
         <v>18.0</v>
@@ -3698,25 +3734,25 @@
         <v>0.6087398825801864</v>
       </c>
       <c r="F64" t="n">
-        <v>2.2629633446244237</v>
+        <v>2.270724440897454</v>
       </c>
       <c r="G64" t="n">
-        <v>4.719708562882981E-4</v>
+        <v>5.27776472097967E-4</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003377541440313133</v>
+        <v>0.003801639900580669</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0024141930313431037</v>
+        <v>0.0027170071672148635</v>
       </c>
       <c r="J64" t="n">
         <v>4865.0</v>
       </c>
       <c r="K64" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65">
@@ -3727,7 +3763,7 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" t="n">
         <v>18.0</v>
@@ -3736,25 +3772,25 @@
         <v>0.6087398825801864</v>
       </c>
       <c r="F65" t="n">
-        <v>2.2629633446244237</v>
+        <v>2.270724440897454</v>
       </c>
       <c r="G65" t="n">
-        <v>4.719708562882981E-4</v>
+        <v>5.27776472097967E-4</v>
       </c>
       <c r="H65" t="n">
-        <v>0.003377541440313133</v>
+        <v>0.003801639900580669</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0024141930313431037</v>
+        <v>0.0027170071672148635</v>
       </c>
       <c r="J65" t="n">
         <v>4865.0</v>
       </c>
       <c r="K65" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L65" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66">
@@ -3765,34 +3801,34 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D66" t="n">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3520946587173064</v>
+        <v>-0.6302475087216678</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68196634138723</v>
+        <v>-1.7271410123945854</v>
       </c>
       <c r="G66" t="n">
-        <v>5.314827088972024E-4</v>
+        <v>6.108784934117044E-4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0037449089334602877</v>
+        <v>0.004332538237889165</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0026767793112069628</v>
+        <v>0.0030964367358358464</v>
       </c>
       <c r="J66" t="n">
-        <v>4043.0</v>
+        <v>861.0</v>
       </c>
       <c r="K66" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L66" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67">
@@ -3803,34 +3839,34 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D67" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6302475087216678</v>
+        <v>-0.6113881159056489</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.7172184625649998</v>
+        <v>-1.689670688509447</v>
       </c>
       <c r="G67" t="n">
-        <v>5.62009301728441E-4</v>
+        <v>6.861433826605687E-4</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0039000039422973634</v>
+        <v>0.004721076110545106</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0027876378442989657</v>
+        <v>0.0033741222116694114</v>
       </c>
       <c r="J67" t="n">
         <v>861.0</v>
       </c>
       <c r="K67" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L67" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68">
@@ -3841,34 +3877,34 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D68" t="n">
-        <v>19.0</v>
+        <v>37.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6021548265222154</v>
+        <v>-0.6113881159056489</v>
       </c>
       <c r="F68" t="n">
-        <v>2.292642915182662</v>
+        <v>-1.689670688509447</v>
       </c>
       <c r="G68" t="n">
-        <v>6.952471395597363E-4</v>
+        <v>6.861433826605687E-4</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0047525849241546155</v>
+        <v>0.004721076110545106</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0033970441540153657</v>
+        <v>0.0033741222116694114</v>
       </c>
       <c r="J68" t="n">
-        <v>3306.0</v>
+        <v>861.0</v>
       </c>
       <c r="K68" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L68" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69">
@@ -3879,34 +3915,34 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D69" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6841343954734451</v>
+        <v>0.6021548265222154</v>
       </c>
       <c r="F69" t="n">
-        <v>2.1715898893727967</v>
+        <v>2.3115894390386176</v>
       </c>
       <c r="G69" t="n">
-        <v>9.037402802052714E-4</v>
+        <v>7.067902058852405E-4</v>
       </c>
       <c r="H69" t="n">
-        <v>0.006086956593147269</v>
+        <v>0.004791621836957292</v>
       </c>
       <c r="I69" t="n">
-        <v>0.004350823949595037</v>
+        <v>0.0034245407808371564</v>
       </c>
       <c r="J69" t="n">
-        <v>2319.0</v>
+        <v>3306.0</v>
       </c>
       <c r="K69" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L69" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70">
@@ -3917,7 +3953,7 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D70" t="n">
         <v>14.0</v>
@@ -3926,25 +3962,25 @@
         <v>0.6491595460695836</v>
       </c>
       <c r="F70" t="n">
-        <v>2.1349817156689106</v>
+        <v>2.1750228117427732</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0011872414726691316</v>
+        <v>7.327409124169345E-4</v>
       </c>
       <c r="H70" t="n">
-        <v>0.007767951349749461</v>
+        <v>0.004895558849626186</v>
       </c>
       <c r="I70" t="n">
-        <v>0.005552362375941352</v>
+        <v>0.0034988238838520296</v>
       </c>
       <c r="J70" t="n">
         <v>5418.0</v>
       </c>
       <c r="K70" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L70" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71">
@@ -3955,34 +3991,34 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D71" t="n">
-        <v>44.0</v>
+        <v>216.0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3975726860321812</v>
+        <v>-0.4404225684118118</v>
       </c>
       <c r="F71" t="n">
-        <v>1.818783721396499</v>
+        <v>-1.367773312340498</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0011774323401445596</v>
+        <v>9.664383176109178E-4</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007767951349749461</v>
+        <v>0.006364686634551901</v>
       </c>
       <c r="I71" t="n">
-        <v>0.005552362375941352</v>
+        <v>0.004548799900935599</v>
       </c>
       <c r="J71" t="n">
-        <v>3932.0</v>
+        <v>4457.0</v>
       </c>
       <c r="K71" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L71" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72">
@@ -3993,34 +4029,34 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D72" t="n">
-        <v>37.0</v>
+        <v>13.0</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6113881159056489</v>
+        <v>0.6841343954734451</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.6812200861488618</v>
+        <v>2.2198405440334614</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0013371027541895894</v>
+        <v>9.826210370348241E-4</v>
       </c>
       <c r="H72" t="n">
-        <v>0.008505459186372666</v>
+        <v>0.006380116874268365</v>
       </c>
       <c r="I72" t="n">
-        <v>0.00607951690866904</v>
+        <v>0.004559827792318755</v>
       </c>
       <c r="J72" t="n">
-        <v>861.0</v>
+        <v>2319.0</v>
       </c>
       <c r="K72" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L72" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73">
@@ -4031,34 +4067,34 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D73" t="n">
-        <v>37.0</v>
+        <v>56.0</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6113881159056489</v>
+        <v>0.36559930573795</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.6812200861488618</v>
+        <v>1.7935735469491227</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0013371027541895894</v>
+        <v>0.0014660028517331765</v>
       </c>
       <c r="H73" t="n">
-        <v>0.008505459186372666</v>
+        <v>0.009386490481236033</v>
       </c>
       <c r="I73" t="n">
-        <v>0.00607951690866904</v>
+        <v>0.006708463341995385</v>
       </c>
       <c r="J73" t="n">
-        <v>861.0</v>
+        <v>3476.0</v>
       </c>
       <c r="K73" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L73" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74">
@@ -4069,34 +4105,34 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D74" t="n">
-        <v>11.0</v>
+        <v>44.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6876785687654503</v>
+        <v>0.3975726860321812</v>
       </c>
       <c r="F74" t="n">
-        <v>2.0610895429995835</v>
+        <v>1.8003449113082</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0014757826852965154</v>
+        <v>0.0016217164962790834</v>
       </c>
       <c r="H74" t="n">
-        <v>0.009259020135148002</v>
+        <v>0.010241250750474759</v>
       </c>
       <c r="I74" t="n">
-        <v>0.006618145856196342</v>
+        <v>0.007319354914713095</v>
       </c>
       <c r="J74" t="n">
-        <v>4130.0</v>
+        <v>3932.0</v>
       </c>
       <c r="K74" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L74" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75">
@@ -4107,34 +4143,34 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D75" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6071736884973455</v>
+        <v>0.6876785687654503</v>
       </c>
       <c r="F75" t="n">
-        <v>2.1515499383610273</v>
+        <v>2.059783931047587</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001541134389050939</v>
+        <v>0.0016754287318832483</v>
       </c>
       <c r="H75" t="n">
-        <v>0.009538372299801758</v>
+        <v>0.010437468181056453</v>
       </c>
       <c r="I75" t="n">
-        <v>0.006817820696939431</v>
+        <v>0.007459590228726271</v>
       </c>
       <c r="J75" t="n">
-        <v>2800.0</v>
+        <v>4130.0</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L75" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76">
@@ -4145,34 +4181,34 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D76" t="n">
-        <v>216.0</v>
+        <v>56.0</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4404225684118118</v>
+        <v>-0.5464145933681873</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.3577777890459892</v>
+        <v>-1.5845443745805443</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001665938868358704</v>
+        <v>0.0019091430415257428</v>
       </c>
       <c r="H76" t="n">
-        <v>0.010173333356110486</v>
+        <v>0.011734865895244898</v>
       </c>
       <c r="I76" t="n">
-        <v>0.007271677025397291</v>
+        <v>0.008386831887685018</v>
       </c>
       <c r="J76" t="n">
-        <v>4457.0</v>
+        <v>3817.0</v>
       </c>
       <c r="K76" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L76" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77">
@@ -4183,34 +4219,34 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D77" t="n">
-        <v>56.0</v>
+        <v>16.0</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5464145933681873</v>
+        <v>0.6071736884973455</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.562315552953297</v>
+        <v>2.1091087754384756</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0018920973667079103</v>
+        <v>0.002072052804805825</v>
       </c>
       <c r="H77" t="n">
-        <v>0.011402376236213459</v>
+        <v>0.012406963735248746</v>
       </c>
       <c r="I77" t="n">
-        <v>0.008150170097592245</v>
+        <v>0.008867175817177437</v>
       </c>
       <c r="J77" t="n">
-        <v>3817.0</v>
+        <v>2800.0</v>
       </c>
       <c r="K77" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L77" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78">
@@ -4221,7 +4257,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D78" t="n">
         <v>58.0</v>
@@ -4230,25 +4266,25 @@
         <v>-0.5431256285704237</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.5560229396220175</v>
+        <v>-1.5811004849364048</v>
       </c>
       <c r="G78" t="n">
-        <v>0.002269418141438438</v>
+        <v>0.002072312814781244</v>
       </c>
       <c r="H78" t="n">
-        <v>0.013498616997127332</v>
+        <v>0.012406963735248746</v>
       </c>
       <c r="I78" t="n">
-        <v>0.009648517320401286</v>
+        <v>0.008867175817177437</v>
       </c>
       <c r="J78" t="n">
         <v>3817.0</v>
       </c>
       <c r="K78" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L78" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79">
@@ -4259,34 +4295,34 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D79" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6388825416811552</v>
+        <v>-0.7524107458522381</v>
       </c>
       <c r="F79" t="n">
-        <v>2.0279507611241616</v>
+        <v>-1.7124412141174827</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002882188769025915</v>
+        <v>0.0026913919454159964</v>
       </c>
       <c r="H79" t="n">
-        <v>0.016709398179922393</v>
+        <v>0.015494874562970473</v>
       </c>
       <c r="I79" t="n">
-        <v>0.011943513753058755</v>
+        <v>0.01107408548512332</v>
       </c>
       <c r="J79" t="n">
-        <v>4623.0</v>
+        <v>256.0</v>
       </c>
       <c r="K79" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L79" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80">
@@ -4297,34 +4333,34 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D80" t="n">
         <v>13.0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6388825416811552</v>
+        <v>-0.7286660204573167</v>
       </c>
       <c r="F80" t="n">
-        <v>2.0279507611241616</v>
+        <v>-1.6979532000185669</v>
       </c>
       <c r="G80" t="n">
-        <v>0.002882188769025915</v>
+        <v>0.0027225267670295187</v>
       </c>
       <c r="H80" t="n">
-        <v>0.016709398179922393</v>
+        <v>0.015494874562970473</v>
       </c>
       <c r="I80" t="n">
-        <v>0.011943513753058755</v>
+        <v>0.01107408548512332</v>
       </c>
       <c r="J80" t="n">
-        <v>4623.0</v>
+        <v>3686.0</v>
       </c>
       <c r="K80" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L80" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81">
@@ -4335,34 +4371,34 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D81" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5423221617666645</v>
+        <v>-0.7286660204573167</v>
       </c>
       <c r="F81" t="n">
-        <v>2.016058431811026</v>
+        <v>-1.6979532000185669</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0032251098961294912</v>
+        <v>0.0027225267670295187</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01823580657317663</v>
+        <v>0.015494874562970473</v>
       </c>
       <c r="I81" t="n">
-        <v>0.013034557215026275</v>
+        <v>0.01107408548512332</v>
       </c>
       <c r="J81" t="n">
-        <v>4512.0</v>
+        <v>3686.0</v>
       </c>
       <c r="K81" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L81" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82">
@@ -4373,34 +4409,34 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D82" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5040589565793121</v>
+        <v>-0.7286660204573167</v>
       </c>
       <c r="F82" t="n">
-        <v>1.9773976508284192</v>
+        <v>-1.6979532000185669</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0031930453628693403</v>
+        <v>0.0027225267670295187</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01823580657317663</v>
+        <v>0.015494874562970473</v>
       </c>
       <c r="I82" t="n">
-        <v>0.013034557215026275</v>
+        <v>0.01107408548512332</v>
       </c>
       <c r="J82" t="n">
-        <v>2175.0</v>
+        <v>3686.0</v>
       </c>
       <c r="K82" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L82" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83">
@@ -4411,34 +4447,34 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D83" t="n">
-        <v>223.0</v>
+        <v>23.0</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4290377718378563</v>
+        <v>0.5040589565793121</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.3260177345273263</v>
+        <v>1.9776034892230685</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0033483310203710807</v>
+        <v>0.002766466790213778</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01870165374792628</v>
+        <v>0.015552941344982339</v>
       </c>
       <c r="I83" t="n">
-        <v>0.013367534625614968</v>
+        <v>0.011115585434363449</v>
       </c>
       <c r="J83" t="n">
-        <v>3878.0</v>
+        <v>2175.0</v>
       </c>
       <c r="K83" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L83" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84">
@@ -4449,34 +4485,34 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D84" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5010574584598548</v>
+        <v>0.6388825416811552</v>
       </c>
       <c r="F84" t="n">
-        <v>1.9656229263583724</v>
+        <v>2.0730098914519854</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0034536982583427216</v>
+        <v>0.002996271386116813</v>
       </c>
       <c r="H84" t="n">
-        <v>0.019057756654469477</v>
+        <v>0.016090640671073318</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0136220692244082</v>
+        <v>0.011499875625176275</v>
       </c>
       <c r="J84" t="n">
-        <v>3261.0</v>
+        <v>4623.0</v>
       </c>
       <c r="K84" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L84" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85">
@@ -4487,34 +4523,34 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D85" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6567714242851816</v>
+        <v>0.6388825416811552</v>
       </c>
       <c r="F85" t="n">
-        <v>1.9684555782584394</v>
+        <v>2.0730098914519854</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0035544537448599046</v>
+        <v>0.002996271386116813</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01915223311936278</v>
+        <v>0.016090640671073318</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01368959894305177</v>
+        <v>0.011499875625176275</v>
       </c>
       <c r="J85" t="n">
-        <v>2800.0</v>
+        <v>4623.0</v>
       </c>
       <c r="K85" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L85" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86">
@@ -4525,34 +4561,34 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D86" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6565246412282562</v>
+        <v>0.6508902775325565</v>
       </c>
       <c r="F86" t="n">
-        <v>1.9677159274955376</v>
+        <v>2.0240190977045396</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0035544537448599046</v>
+        <v>0.0030017247238878645</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01915223311936278</v>
+        <v>0.016090640671073318</v>
       </c>
       <c r="I86" t="n">
-        <v>0.01368959894305177</v>
+        <v>0.011499875625176275</v>
       </c>
       <c r="J86" t="n">
         <v>3932.0</v>
       </c>
       <c r="K86" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L86" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87">
@@ -4563,34 +4599,34 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D87" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.7286660204573167</v>
+        <v>0.5918447489908849</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.6706281680222417</v>
+        <v>1.9829883698996964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003703516386702318</v>
+        <v>0.002907594463472301</v>
       </c>
       <c r="H87" t="n">
-        <v>0.019275119376246156</v>
+        <v>0.016090640671073318</v>
       </c>
       <c r="I87" t="n">
-        <v>0.013777435362014605</v>
+        <v>0.011499875625176275</v>
       </c>
       <c r="J87" t="n">
-        <v>3686.0</v>
+        <v>2784.0</v>
       </c>
       <c r="K87" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L87" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88">
@@ -4601,34 +4637,34 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D88" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.7286660204573167</v>
+        <v>0.5423221617666645</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.6706281680222417</v>
+        <v>2.022972738937789</v>
       </c>
       <c r="G88" t="n">
-        <v>0.003703516386702318</v>
+        <v>0.00318972960364263</v>
       </c>
       <c r="H88" t="n">
-        <v>0.019275119376246156</v>
+        <v>0.016901900543439683</v>
       </c>
       <c r="I88" t="n">
-        <v>0.013777435362014605</v>
+        <v>0.01207967774882206</v>
       </c>
       <c r="J88" t="n">
-        <v>3686.0</v>
+        <v>4512.0</v>
       </c>
       <c r="K88" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L88" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89">
@@ -4639,34 +4675,34 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D89" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.7286660204573167</v>
+        <v>0.6567714242851816</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.6706281680222417</v>
+        <v>1.9672086459557272</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003703516386702318</v>
+        <v>0.003280504933025619</v>
       </c>
       <c r="H89" t="n">
-        <v>0.019275119376246156</v>
+        <v>0.016992278360952927</v>
       </c>
       <c r="I89" t="n">
-        <v>0.013777435362014605</v>
+        <v>0.012144270183761312</v>
       </c>
       <c r="J89" t="n">
-        <v>3686.0</v>
+        <v>2800.0</v>
       </c>
       <c r="K89" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L89" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90">
@@ -4677,34 +4713,34 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D90" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.7524107458522381</v>
+        <v>0.5010574584598548</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.6939595458625243</v>
+        <v>1.9658275390560147</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003873688475985802</v>
+        <v>0.0032732913187719015</v>
       </c>
       <c r="H90" t="n">
-        <v>0.019934262044960644</v>
+        <v>0.016992278360952927</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01424857618014884</v>
+        <v>0.012144270183761312</v>
       </c>
       <c r="J90" t="n">
-        <v>256.0</v>
+        <v>3261.0</v>
       </c>
       <c r="K90" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L90" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91">
@@ -4715,34 +4751,34 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D91" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.48268304248416355</v>
+        <v>0.6565246412282562</v>
       </c>
       <c r="F91" t="n">
-        <v>1.8824371555804826</v>
+        <v>1.9664694637299056</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004018447025605866</v>
+        <v>0.003323954698467689</v>
       </c>
       <c r="H91" t="n">
-        <v>0.020449430419194295</v>
+        <v>0.017026034622151163</v>
       </c>
       <c r="I91" t="n">
-        <v>0.014616807309513737</v>
+        <v>0.012168395562811542</v>
       </c>
       <c r="J91" t="n">
-        <v>5159.0</v>
+        <v>3932.0</v>
       </c>
       <c r="K91" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L91" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92">
@@ -4753,34 +4789,34 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D92" t="n">
-        <v>20.0</v>
+        <v>223.0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5220690760445844</v>
+        <v>-0.4290377718378563</v>
       </c>
       <c r="F92" t="n">
-        <v>2.0238903193895545</v>
+        <v>-1.3326890489377106</v>
       </c>
       <c r="G92" t="n">
-        <v>0.004735570469588254</v>
+        <v>0.003533319851603239</v>
       </c>
       <c r="H92" t="n">
-        <v>0.023833970055729896</v>
+        <v>0.017899565402077947</v>
       </c>
       <c r="I92" t="n">
-        <v>0.017036002499039294</v>
+        <v>0.012792702296724278</v>
       </c>
       <c r="J92" t="n">
-        <v>4876.0</v>
+        <v>3878.0</v>
       </c>
       <c r="K92" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L92" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93">
@@ -4791,34 +4827,34 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D93" t="n">
-        <v>55.0</v>
+        <v>26.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3132570247686919</v>
+        <v>-0.6173207232178386</v>
       </c>
       <c r="F93" t="n">
-        <v>1.5070429152112703</v>
+        <v>-1.6272158370642804</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0049377752916781705</v>
+        <v>0.003703512685901327</v>
       </c>
       <c r="H93" t="n">
-        <v>0.024581533517267416</v>
+        <v>0.018557819002179475</v>
       </c>
       <c r="I93" t="n">
-        <v>0.017570344573362828</v>
+        <v>0.013263151838525349</v>
       </c>
       <c r="J93" t="n">
-        <v>4349.0</v>
+        <v>3046.0</v>
       </c>
       <c r="K93" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L93" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94">
@@ -4829,34 +4865,34 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D94" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5918447489908849</v>
+        <v>-0.5549531615103247</v>
       </c>
       <c r="F94" t="n">
-        <v>1.94648253308556</v>
+        <v>-1.5906634296213276</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0050079589008668315</v>
+        <v>0.003822606112135114</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02466285136125816</v>
+        <v>0.01894861739456223</v>
       </c>
       <c r="I94" t="n">
-        <v>0.017628468796486524</v>
+        <v>0.013542452893019703</v>
       </c>
       <c r="J94" t="n">
-        <v>2784.0</v>
+        <v>861.0</v>
       </c>
       <c r="K94" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L94" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95">
@@ -4867,34 +4903,34 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D95" t="n">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.6173207232178386</v>
+        <v>0.33887797081526305</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.6181572411921976</v>
+        <v>1.5880372005785959</v>
       </c>
       <c r="G95" t="n">
-        <v>0.005112393311659681</v>
+        <v>0.004105209794269167</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02490932060361845</v>
+        <v>0.02013299696976687</v>
       </c>
       <c r="I95" t="n">
-        <v>0.017804639640830466</v>
+        <v>0.014388921227393613</v>
       </c>
       <c r="J95" t="n">
-        <v>3046.0</v>
+        <v>4272.0</v>
       </c>
       <c r="K95" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L95" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96">
@@ -4905,34 +4941,34 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D96" t="n">
-        <v>47.0</v>
+        <v>20.0</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5549531615103247</v>
+        <v>0.5220690760445844</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.5657247423812248</v>
+        <v>1.9916450398961159</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005466414067175618</v>
+        <v>0.005407707350534419</v>
       </c>
       <c r="H96" t="n">
-        <v>0.026353869923857187</v>
+        <v>0.026241611458909127</v>
       </c>
       <c r="I96" t="n">
-        <v>0.018837172020959744</v>
+        <v>0.018754708041188624</v>
       </c>
       <c r="J96" t="n">
-        <v>861.0</v>
+        <v>4876.0</v>
       </c>
       <c r="K96" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L96" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97">
@@ -4943,7 +4979,7 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D97" t="n">
         <v>81.0</v>
@@ -4952,25 +4988,25 @@
         <v>-0.483870228194531</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.4287081486884454</v>
+        <v>-1.4360970731575637</v>
       </c>
       <c r="G97" t="n">
-        <v>0.005746082714823265</v>
+        <v>0.0056242370723607205</v>
       </c>
       <c r="H97" t="n">
-        <v>0.027413602951969325</v>
+        <v>0.027008055107898873</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01959464609989074</v>
+        <v>0.019302480303167828</v>
       </c>
       <c r="J97" t="n">
         <v>6744.0</v>
       </c>
       <c r="K97" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L97" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98">
@@ -4981,34 +5017,34 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D98" t="n">
-        <v>50.0</v>
+        <v>14.0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.33887797081526305</v>
+        <v>0.5562291453518493</v>
       </c>
       <c r="F98" t="n">
-        <v>1.5183136371796615</v>
+        <v>1.8636575353800298</v>
       </c>
       <c r="G98" t="n">
-        <v>0.006083606696413996</v>
+        <v>0.0062650764954241545</v>
       </c>
       <c r="H98" t="n">
-        <v>0.028724658422243404</v>
+        <v>0.029775260457634383</v>
       </c>
       <c r="I98" t="n">
-        <v>0.020531759984641917</v>
+        <v>0.021280183864001743</v>
       </c>
       <c r="J98" t="n">
-        <v>4272.0</v>
+        <v>4260.0</v>
       </c>
       <c r="K98" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L98" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99">
@@ -5019,34 +5055,34 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D99" t="n">
-        <v>53.0</v>
+        <v>64.0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.32921161648757485</v>
+        <v>0.29028396737207685</v>
       </c>
       <c r="F99" t="n">
-        <v>1.5675232248326327</v>
+        <v>1.4510003815983878</v>
       </c>
       <c r="G99" t="n">
-        <v>0.006718998886120963</v>
+        <v>0.0064001053452030915</v>
       </c>
       <c r="H99" t="n">
-        <v>0.03140103561064695</v>
+        <v>0.03010661800141454</v>
       </c>
       <c r="I99" t="n">
-        <v>0.022444776085753165</v>
+        <v>0.021517002932852504</v>
       </c>
       <c r="J99" t="n">
-        <v>2001.0</v>
+        <v>3427.0</v>
       </c>
       <c r="K99" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L99" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100">
@@ -5057,34 +5093,34 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D100" t="n">
-        <v>52.0</v>
+        <v>35.0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3218965780964479</v>
+        <v>0.37135781689778685</v>
       </c>
       <c r="F100" t="n">
-        <v>1.538613373023176</v>
+        <v>1.6873602130643752</v>
       </c>
       <c r="G100" t="n">
-        <v>0.007548192360364075</v>
+        <v>0.0073774640476025775</v>
       </c>
       <c r="H100" t="n">
-        <v>0.034919920212593394</v>
+        <v>0.034010109259447883</v>
       </c>
       <c r="I100" t="n">
-        <v>0.02495999812943357</v>
+        <v>0.024306802598943234</v>
       </c>
       <c r="J100" t="n">
-        <v>2971.0</v>
+        <v>2596.0</v>
       </c>
       <c r="K100" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="L100" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101">
@@ -5095,34 +5131,34 @@
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D101" t="n">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6508902775325565</v>
+        <v>0.37135781689778685</v>
       </c>
       <c r="F101" t="n">
-        <v>2.0179426996441414</v>
+        <v>1.6873602130643752</v>
       </c>
       <c r="G101" t="n">
-        <v>0.008581528203280625</v>
+        <v>0.0073774640476025775</v>
       </c>
       <c r="H101" t="n">
-        <v>0.03930339917102526</v>
+        <v>0.034010109259447883</v>
       </c>
       <c r="I101" t="n">
-        <v>0.028093213381266042</v>
+        <v>0.024306802598943234</v>
       </c>
       <c r="J101" t="n">
-        <v>3932.0</v>
+        <v>2596.0</v>
       </c>
       <c r="K101" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L101" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102">
@@ -5133,34 +5169,34 @@
         <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D102" t="n">
-        <v>16.0</v>
+        <v>53.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5324409421448941</v>
+        <v>0.32921161648757485</v>
       </c>
       <c r="F102" t="n">
-        <v>1.8867307624739778</v>
+        <v>1.5782033388803456</v>
       </c>
       <c r="G102" t="n">
-        <v>0.009275560605713877</v>
+        <v>0.007602929652651299</v>
       </c>
       <c r="H102" t="n">
-        <v>0.04206145304373223</v>
+        <v>0.03436226048894361</v>
       </c>
       <c r="I102" t="n">
-        <v>0.030064610196738045</v>
+        <v>0.024558482778945893</v>
       </c>
       <c r="J102" t="n">
-        <v>3106.0</v>
+        <v>2001.0</v>
       </c>
       <c r="K102" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L102" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103">
@@ -5171,34 +5207,34 @@
         <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D103" t="n">
-        <v>35.0</v>
+        <v>55.0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.37135781689778685</v>
+        <v>0.3132570247686919</v>
       </c>
       <c r="F103" t="n">
-        <v>1.629281244593485</v>
+        <v>1.5204787807854674</v>
       </c>
       <c r="G103" t="n">
-        <v>0.010099172913535246</v>
+        <v>0.0075780253972745765</v>
       </c>
       <c r="H103" t="n">
-        <v>0.04490700188737031</v>
+        <v>0.03436226048894361</v>
       </c>
       <c r="I103" t="n">
-        <v>0.03209854651108289</v>
+        <v>0.024558482778945893</v>
       </c>
       <c r="J103" t="n">
-        <v>2596.0</v>
+        <v>4349.0</v>
       </c>
       <c r="K103" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L103" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104">
@@ -5209,34 +5245,34 @@
         <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D104" t="n">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.37135781689778685</v>
+        <v>0.5041329680555038</v>
       </c>
       <c r="F104" t="n">
-        <v>1.629281244593485</v>
+        <v>1.8079296858575327</v>
       </c>
       <c r="G104" t="n">
-        <v>0.010099172913535246</v>
+        <v>0.008008969801191814</v>
       </c>
       <c r="H104" t="n">
-        <v>0.04490700188737031</v>
+        <v>0.03584597163446045</v>
       </c>
       <c r="I104" t="n">
-        <v>0.03209854651108289</v>
+        <v>0.02561888142844188</v>
       </c>
       <c r="J104" t="n">
-        <v>2596.0</v>
+        <v>4667.0</v>
       </c>
       <c r="K104" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L104" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105">
@@ -5247,34 +5283,34 @@
         <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D105" t="n">
-        <v>52.0</v>
+        <v>22.0</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5179403580412517</v>
+        <v>0.48268304248416355</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.4727582253478295</v>
+        <v>1.872444945936076</v>
       </c>
       <c r="G105" t="n">
-        <v>0.010363461305547848</v>
+        <v>0.008129451730491838</v>
       </c>
       <c r="H105" t="n">
-        <v>0.04563908921097033</v>
+        <v>0.03603535815150709</v>
       </c>
       <c r="I105" t="n">
-        <v>0.03262182657920426</v>
+        <v>0.025754234733238315</v>
       </c>
       <c r="J105" t="n">
-        <v>3361.0</v>
+        <v>5159.0</v>
       </c>
       <c r="K105" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L105" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106">
@@ -5285,34 +5321,34 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D106" t="n">
-        <v>77.0</v>
+        <v>52.0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.27219364564375526</v>
+        <v>0.3218965780964479</v>
       </c>
       <c r="F106" t="n">
-        <v>1.4425344306163885</v>
+        <v>1.5360615060670622</v>
       </c>
       <c r="G106" t="n">
-        <v>0.010613422275875074</v>
+        <v>0.008481561148351042</v>
       </c>
       <c r="H106" t="n">
-        <v>0.04608880893243736</v>
+        <v>0.03723809227990315</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03294327643757301</v>
+        <v>0.026613820946705526</v>
       </c>
       <c r="J106" t="n">
-        <v>4349.0</v>
+        <v>2971.0</v>
       </c>
       <c r="K106" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="L106" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107">
@@ -5323,34 +5359,34 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D107" t="n">
-        <v>78.0</v>
+        <v>52.0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.26922308878365747</v>
+        <v>-0.5179403580412517</v>
       </c>
       <c r="F107" t="n">
-        <v>1.409456081403105</v>
+        <v>-1.4970496108763054</v>
       </c>
       <c r="G107" t="n">
-        <v>0.010666842242005153</v>
+        <v>0.008868535512870078</v>
       </c>
       <c r="H107" t="n">
-        <v>0.04608880893243736</v>
+        <v>0.0382092978638608</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03294327643757301</v>
+        <v>0.027307935224085932</v>
       </c>
       <c r="J107" t="n">
-        <v>4349.0</v>
+        <v>3361.0</v>
       </c>
       <c r="K107" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L107" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108">
@@ -5361,34 +5397,34 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D108" t="n">
-        <v>59.0</v>
+        <v>57.0</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5040199687854628</v>
+        <v>-0.5046609284967808</v>
       </c>
       <c r="F108" t="n">
-        <v>-1.4456336124500702</v>
+        <v>-1.4649442217570063</v>
       </c>
       <c r="G108" t="n">
-        <v>0.011016424885026313</v>
+        <v>0.008868535512870078</v>
       </c>
       <c r="H108" t="n">
-        <v>0.04715441679758926</v>
+        <v>0.0382092978638608</v>
       </c>
       <c r="I108" t="n">
-        <v>0.033704949722018526</v>
+        <v>0.027307935224085932</v>
       </c>
       <c r="J108" t="n">
-        <v>4803.0</v>
+        <v>3361.0</v>
       </c>
       <c r="K108" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L108" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109">
@@ -5399,34 +5435,34 @@
         <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D109" t="n">
-        <v>13.0</v>
+        <v>59.0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.6851462904357896</v>
+        <v>-0.5040199687854628</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.570849552308755</v>
+        <v>-1.4685912895579942</v>
       </c>
       <c r="G109" t="n">
-        <v>0.011198207233882618</v>
+        <v>0.009897141388531223</v>
       </c>
       <c r="H109" t="n">
-        <v>0.04748869363998369</v>
+        <v>0.0422461312973416</v>
       </c>
       <c r="I109" t="n">
-        <v>0.03394388352570657</v>
+        <v>0.03019303367066543</v>
       </c>
       <c r="J109" t="n">
-        <v>1649.0</v>
+        <v>4803.0</v>
       </c>
       <c r="K109" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L109" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110">
@@ -5437,34 +5473,34 @@
         <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D110" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5706231375086479</v>
+        <v>0.6475709636494325</v>
       </c>
       <c r="F110" t="n">
-        <v>1.811280713635836</v>
+        <v>1.857237323010638</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01164289745485604</v>
+        <v>0.010062123357701932</v>
       </c>
       <c r="H110" t="n">
-        <v>0.048921532424991435</v>
+        <v>0.04255631988899625</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03496804547040298</v>
+        <v>0.030414723427916034</v>
       </c>
       <c r="J110" t="n">
-        <v>4260.0</v>
+        <v>4869.0</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L110" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111">
@@ -5475,34 +5511,148 @@
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D111" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5562291453518493</v>
+        <v>-0.5946797798754915</v>
       </c>
       <c r="F111" t="n">
-        <v>1.8293485203112927</v>
+        <v>-1.5682328982064861</v>
       </c>
       <c r="G111" t="n">
-        <v>0.011881312798023276</v>
+        <v>0.010297910837325975</v>
       </c>
       <c r="H111" t="n">
-        <v>0.04946946601358782</v>
+        <v>0.04315760814552067</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03535969646110276</v>
+        <v>0.030844460211320868</v>
       </c>
       <c r="J111" t="n">
-        <v>4260.0</v>
+        <v>3046.0</v>
       </c>
       <c r="K111" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L111" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.641274662748865</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.8391794950877514</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.010738553205663873</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.044598856106405814</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.03187451070054806</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>327</v>
+      </c>
+      <c r="L112" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.27219364564375526</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.3692374966491332</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.011104544931041677</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.04570710011794833</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.03266656544563953</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4349.0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>328</v>
+      </c>
+      <c r="L113" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5324409421448941</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.8495133843162825</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.012224151331586428</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.04987021029965791</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.035641913058095505</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3106.0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>329</v>
+      </c>
+      <c r="L114" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
